--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ark3" sheetId="3" r:id="rId1"/>
     <sheet name="Filter" sheetId="4" r:id="rId2"/>
-    <sheet name="Forstærker" sheetId="1" r:id="rId3"/>
+    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId3"/>
+    <sheet name="Forstærker" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -146,6 +147,12 @@
   </si>
   <si>
     <t>Amplitude ud i V</t>
+  </si>
+  <si>
+    <t>For meget offset!</t>
+  </si>
+  <si>
+    <t>Fasedrej</t>
   </si>
 </sst>
 </file>
@@ -287,6 +294,1168 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dæmpning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> af signal ved forskellige frekvenser</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Filter!$A$3:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Filter!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Filter!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.75E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="461467712"/>
+        <c:axId val="461467320"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Filter!$A$5:$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>150</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Filter!$C$5:$C$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.4700000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.36</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.27</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.14</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.04</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.97</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.81</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.72</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.61</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.48</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.18</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.96</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.77</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.64</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="461467712"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461467320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="461467320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="461467712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Filter!$A$27:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Filter!$C$27:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>7.9588001734407516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8539390651933152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4582400594021312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1205171438624548</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6082754669838177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1926033485179754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8893245232318581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1535714973836901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7105689381509777</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.1365175206369944</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4052343078991476</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4376401461225072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.35457533920863205</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.2701854965503623</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.8764005203222562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5.1927462101151223</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6.7448433663685181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-10.752040042020878</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="413072904"/>
+        <c:axId val="413074472"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Filter!$A$27:$A$44</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="18"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>150</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="413072904"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413074472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="413074472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="413072904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="da-DK"/>
               <a:t>DC-forstærkning</a:t>
             </a:r>
@@ -384,8 +1553,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.4595733838928577E-4"/>
-                  <c:y val="0.37254648060469814"/>
+                  <c:x val="-4.453472989021557E-2"/>
+                  <c:y val="0.39117961379776778"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -407,17 +1576,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-                      <a:t>y = 663,38x - 0,6127</a:t>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 386,38x + 0,5547</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1300" b="1" baseline="0"/>
-                      <a:t>R² = 0,9864</a:t>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0,9979</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1300" b="1"/>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -453,54 +1622,66 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Forstærker!$C$4:$C$9</c:f>
+              <c:f>Forstærker!$C$6:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1.6000000000000001E-3</c:v>
+                  <c:v>1.25E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8999999999999998E-3</c:v>
+                  <c:v>1.9499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6000000000000003E-3</c:v>
+                  <c:v>3.2500000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9500000000000004E-3</c:v>
+                  <c:v>3.9500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2000000000000006E-3</c:v>
+                  <c:v>5.5500000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.9000000000000008E-3</c:v>
+                  <c:v>6.2000000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.6E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2500000000000004E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Forstærker!$D$4:$D$9</c:f>
+              <c:f>Forstærker!$D$6:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.34</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.72</c:v>
+                  <c:v>1.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.57</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8</c:v>
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -515,11 +1696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382446944"/>
-        <c:axId val="382446552"/>
+        <c:axId val="409610112"/>
+        <c:axId val="409612072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382446944"/>
+        <c:axId val="409610112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,12 +1757,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382446552"/>
+        <c:crossAx val="409612072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382446552"/>
+        <c:axId val="409612072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +1819,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382446944"/>
+        <c:crossAx val="409610112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -687,7 +1868,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -828,13 +2009,27 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.5493919661426319E-2"/>
-                  <c:y val="0.40732182616207024"/>
+                  <c:x val="6.3588625816236644E-2"/>
+                  <c:y val="0.32359767201056877"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -856,17 +2051,17 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-                      <a:t>y = 625,31x + 0,0298</a:t>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 415,76x - 0,0937</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1600" b="1" baseline="0"/>
-                      <a:t>R² = 0,9995</a:t>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0,9993</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1600" b="1"/>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -902,54 +2097,78 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Forstærker!$C$20:$C$25</c:f>
+              <c:f>Forstærker!$C$20:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1E-3</c:v>
+                  <c:v>1.1000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9750000000000002E-3</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0249999999999999E-3</c:v>
+                  <c:v>3.0499999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1250000000000002E-3</c:v>
+                  <c:v>3.9249999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0499999999999998E-3</c:v>
+                  <c:v>5.0999999999999995E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>6.0999999999999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9500000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.75E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Forstærker!$D$20:$D$25</c:f>
+              <c:f>Forstærker!$D$20:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66</c:v>
+                  <c:v>0.38500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.29</c:v>
+                  <c:v>0.77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9</c:v>
+                  <c:v>1.1599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.57</c:v>
+                  <c:v>1.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2</c:v>
+                  <c:v>1.9850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8</c:v>
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -964,11 +2183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382449296"/>
-        <c:axId val="382446160"/>
+        <c:axId val="409610504"/>
+        <c:axId val="409614424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382449296"/>
+        <c:axId val="409610504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1025,12 +2244,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382446160"/>
+        <c:crossAx val="409614424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382446160"/>
+        <c:axId val="409614424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +2306,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382449296"/>
+        <c:crossAx val="409610504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1216,6 +2435,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2248,7 +3547,1104 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2885,10 +5281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2898,7 +5294,7 @@
     <col min="4" max="4" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
@@ -2911,277 +5307,597 @@
       <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.5</v>
+      </c>
+      <c r="C4">
+        <v>2.5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>3.8</v>
-      </c>
-      <c r="C3">
-        <f>6.64/2</f>
-        <v>3.32</v>
-      </c>
-      <c r="D3">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B5">
+        <v>2.5</v>
+      </c>
+      <c r="C5">
+        <v>2.5</v>
+      </c>
+      <c r="D5">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>3.8</v>
-      </c>
-      <c r="C4">
-        <f>6.2/2</f>
-        <v>3.1</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B6">
+        <v>2.5</v>
+      </c>
+      <c r="C6">
+        <f>4.94/2</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D6">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>30</v>
       </c>
-      <c r="B5">
-        <f>7.6/2</f>
-        <v>3.8</v>
-      </c>
-      <c r="C5">
-        <f>5.6/2</f>
-        <v>2.8</v>
-      </c>
-      <c r="D5">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <f>4.72/2</f>
+        <v>2.36</v>
+      </c>
+      <c r="D7">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>35</v>
       </c>
-      <c r="B6">
-        <f>7.6/2</f>
-        <v>3.8</v>
-      </c>
-      <c r="C6">
-        <f>5.16/2</f>
-        <v>2.58</v>
-      </c>
-      <c r="D6">
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B8">
+        <v>2.5</v>
+      </c>
+      <c r="C8">
+        <f>4.54/2</f>
+        <v>2.27</v>
+      </c>
+      <c r="D8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>40</v>
       </c>
-      <c r="B7">
-        <f t="shared" ref="B7:B15" si="0">7.6/2</f>
-        <v>3.8</v>
-      </c>
-      <c r="C7">
-        <f>4.68/2</f>
-        <v>2.34</v>
-      </c>
-      <c r="D7">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B9">
+        <v>2.5</v>
+      </c>
+      <c r="C9">
+        <f>4.28/2</f>
+        <v>2.14</v>
+      </c>
+      <c r="D9">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>43</v>
       </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C8">
-        <f>4.42/2</f>
-        <v>2.21</v>
-      </c>
-      <c r="D8">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>46</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C9">
-        <f>4.16/2</f>
-        <v>2.08</v>
-      </c>
-      <c r="D9">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>50</v>
-      </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="C10">
-        <f>3.86/2</f>
-        <v>1.93</v>
+        <f>4.08/2</f>
+        <v>2.04</v>
       </c>
       <c r="D10">
         <v>4.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="C11">
-        <f>3.64/2</f>
-        <v>1.82</v>
+        <f>3.94/2</f>
+        <v>1.97</v>
       </c>
       <c r="D11">
         <v>4.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>2.5</v>
+      </c>
+      <c r="C12">
+        <f>3.62/2</f>
+        <v>1.81</v>
+      </c>
+      <c r="D12">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="C13">
+        <f>3.44/2</f>
+        <v>1.72</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>56</v>
       </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C12">
-        <f>3.46/2</f>
-        <v>1.73</v>
-      </c>
-      <c r="D12">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B14">
+        <v>2.5</v>
+      </c>
+      <c r="C14">
+        <f>3.22/2</f>
+        <v>1.61</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>60</v>
       </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C13">
-        <f>3.18/2</f>
-        <v>1.59</v>
-      </c>
-      <c r="D13">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B15">
+        <v>2.5</v>
+      </c>
+      <c r="C15">
+        <f>2.96/2</f>
+        <v>1.48</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>70</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C14">
-        <f>2.66/2</f>
-        <v>1.33</v>
-      </c>
-      <c r="D14">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>80</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3.8</v>
-      </c>
-      <c r="C15">
-        <f>2.18/2</f>
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D15">
-        <v>3.95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>90</v>
-      </c>
       <c r="B16">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="C16">
-        <f>1.82/2</f>
-        <v>0.91</v>
+        <f>2.36/2</f>
+        <v>1.18</v>
       </c>
       <c r="D16">
-        <v>3.6</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B17">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="C17">
-        <f>1.56/2</f>
-        <v>0.78</v>
+        <f>1.92/2</f>
+        <v>0.96</v>
       </c>
       <c r="D17">
-        <v>3.45</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>2.5</v>
+      </c>
+      <c r="C18">
+        <f>1.54/2</f>
+        <v>0.77</v>
+      </c>
+      <c r="D18">
+        <v>4.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>2.5</v>
+      </c>
+      <c r="C19">
+        <f>1.28/2</f>
+        <v>0.64</v>
+      </c>
+      <c r="D19">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>110</v>
       </c>
-      <c r="B18">
-        <v>3.8</v>
-      </c>
-      <c r="C18">
-        <f>1.36/2</f>
-        <v>0.68</v>
-      </c>
-      <c r="D18">
-        <v>3.1</v>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <f>1.1/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D20">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21">
+        <v>2.5</v>
+      </c>
+      <c r="C21">
+        <f>(920*10^-3)/2</f>
+        <v>0.46</v>
+      </c>
+      <c r="D21">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>2.5</v>
+      </c>
+      <c r="C22">
+        <f>(580*10^-3)/2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D22">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>500</v>
+      </c>
+      <c r="B23">
+        <v>2.5</v>
+      </c>
+      <c r="C23">
+        <f>(55*10^-3)/2</f>
+        <v>2.75E-2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>2.5</v>
+      </c>
+      <c r="C27">
+        <f>20*LOG10(B27)</f>
+        <v>7.9588001734407516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <f>4.94/2</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C44" si="0">20*LOG10(B28)</f>
+        <v>7.8539390651933152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <f>4.72/2</f>
+        <v>2.36</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7.4582400594021312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <f>4.54/2</f>
+        <v>2.27</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7.1205171438624548</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <f>4.28/2</f>
+        <v>2.14</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>6.6082754669838177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>43</v>
+      </c>
+      <c r="B32">
+        <f>4.08/2</f>
+        <v>2.04</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>6.1926033485179754</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>46</v>
+      </c>
+      <c r="B33">
+        <f>3.94/2</f>
+        <v>1.97</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>5.8893245232318581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <f>3.62/2</f>
+        <v>1.81</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>5.1535714973836901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>53</v>
+      </c>
+      <c r="B35">
+        <f>3.44/2</f>
+        <v>1.72</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>4.7105689381509777</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>56</v>
+      </c>
+      <c r="B36">
+        <f>3.22/2</f>
+        <v>1.61</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>4.1365175206369944</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <f>2.96/2</f>
+        <v>1.48</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>3.4052343078991476</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>70</v>
+      </c>
+      <c r="B38">
+        <f>2.36/2</f>
+        <v>1.18</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>1.4376401461225072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>80</v>
+      </c>
+      <c r="B39">
+        <f>1.92/2</f>
+        <v>0.96</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-0.35457533920863205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <f>1.54/2</f>
+        <v>0.77</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-2.2701854965503623</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <f>1.28/2</f>
+        <v>0.64</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-3.8764005203222562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>110</v>
+      </c>
+      <c r="B42">
+        <f>1.1/2</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-5.1927462101151223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <f>(920*10^-3)/2</f>
+        <v>0.46</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-6.7448433663685181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>150</v>
+      </c>
+      <c r="B44">
+        <f>(580*10^-3)/2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>-10.752040042020878</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
   </cols>
@@ -3216,17 +5932,8 @@
         <f>1*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="C4">
-        <f>1.6*10^-3</f>
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="D4">
-        <f>580*10^-3</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E9" si="0">D4/C4</f>
-        <v>362.49999999999994</v>
+      <c r="C4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3237,16 +5944,8 @@
         <f>2*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="C5">
-        <f>2.9*10^-3</f>
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="D5">
-        <v>1.34</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>462.06896551724145</v>
+      <c r="C5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,15 +5957,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C6">
-        <f>3.6*10^-3</f>
-        <v>3.6000000000000003E-3</v>
+        <f>1.25*10^-3</f>
+        <v>1.25E-3</v>
       </c>
       <c r="D6">
-        <v>1.72</v>
+        <f>980*10^-3</f>
+        <v>0.98</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>477.77777777777771</v>
+        <f>D6/C6</f>
+        <v>784</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3278,15 +5978,15 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C7">
-        <f>4.95*10^-3</f>
-        <v>4.9500000000000004E-3</v>
+        <f>1.95*10^-3</f>
+        <v>1.9499999999999999E-3</v>
       </c>
       <c r="D7">
-        <v>2.57</v>
+        <v>1.3</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>519.19191919191917</v>
+        <f t="shared" ref="E7:E13" si="0">D7/C7</f>
+        <v>666.66666666666674</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3298,15 +5998,15 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8">
-        <f>5.2*10^-3</f>
-        <v>5.2000000000000006E-3</v>
+        <f>3.25*10^-3</f>
+        <v>3.2500000000000003E-3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>576.92307692307691</v>
+        <v>578.46153846153834</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3318,15 +6018,91 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C9">
-        <f>6.9*10^-3</f>
-        <v>6.9000000000000008E-3</v>
+        <f>3.95*10^-3</f>
+        <v>3.9500000000000004E-3</v>
       </c>
       <c r="D9">
-        <v>3.8</v>
+        <v>2.14</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>550.72463768115938</v>
+        <v>541.77215189873414</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C10">
+        <f>5.55*10^-3</f>
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="D10">
+        <v>2.66</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>479.27927927927931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C11">
+        <f>6.2*10^-3</f>
+        <v>6.2000000000000006E-3</v>
+      </c>
+      <c r="D11">
+        <v>2.94</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>474.19354838709671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C12">
+        <f>7.6*10^-3</f>
+        <v>7.6E-3</v>
+      </c>
+      <c r="D12">
+        <v>3.46</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>455.26315789473682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>0.01</v>
+      </c>
+      <c r="C13">
+        <f>8.25*10^-3</f>
+        <v>8.2500000000000004E-3</v>
+      </c>
+      <c r="D13">
+        <v>3.76</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>455.75757575757569</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -3363,16 +6139,16 @@
         <v>1E-3</v>
       </c>
       <c r="C20">
-        <f>1*10^-3</f>
-        <v>1E-3</v>
+        <f>(2.2*10^-3)/2</f>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="D20">
-        <f>1.32/2</f>
-        <v>0.66</v>
+        <f>(770*10^-3)/2</f>
+        <v>0.38500000000000001</v>
       </c>
       <c r="E20">
         <f>D20/C20</f>
-        <v>660</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -3384,16 +6160,16 @@
         <v>2E-3</v>
       </c>
       <c r="C21">
-        <f>(3.95/2)*10^-3</f>
-        <v>1.9750000000000002E-3</v>
+        <f>(4*10^-3)/2</f>
+        <v>2E-3</v>
       </c>
       <c r="D21">
-        <f>2.58/2</f>
-        <v>1.29</v>
+        <f>1.54/2</f>
+        <v>0.77</v>
       </c>
       <c r="E21">
-        <f>D21/C21</f>
-        <v>653.16455696202524</v>
+        <f t="shared" ref="E21:E26" si="1">D21/C21</f>
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3405,16 +6181,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C22">
-        <f>(6.05/2)*10^-3</f>
-        <v>3.0249999999999999E-3</v>
+        <f>(6.1*10^-3)/2</f>
+        <v>3.0499999999999998E-3</v>
       </c>
       <c r="D22">
-        <f>3.8/2</f>
-        <v>1.9</v>
+        <f>2.32/2</f>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E25" si="1">D22/C22</f>
-        <v>628.09917355371897</v>
+        <f t="shared" si="1"/>
+        <v>380.32786885245901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3426,16 +6202,16 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C23">
-        <f>(8.25/2)*10^-3</f>
-        <v>4.1250000000000002E-3</v>
+        <f>(7.85*10^-3)/2</f>
+        <v>3.9249999999999997E-3</v>
       </c>
       <c r="D23">
-        <f>5.14/2</f>
-        <v>2.57</v>
+        <f>3.09/2</f>
+        <v>1.5449999999999999</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>623.030303030303</v>
+        <v>393.63057324840764</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -3447,16 +6223,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="C24">
-        <f>(10.1/2)*10^-3</f>
-        <v>5.0499999999999998E-3</v>
+        <f>(10.2*10^-3)/2</f>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="D24">
-        <f>6.4/2</f>
-        <v>3.2</v>
+        <f>3.97/2</f>
+        <v>1.9850000000000001</v>
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>633.66336633663377</v>
+        <v>389.21568627450984</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,16 +6244,96 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="C25">
-        <f>6*10^-3</f>
-        <v>6.0000000000000001E-3</v>
+        <f>(12.2*10^-3)/2</f>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="D25">
-        <f>7.6/2</f>
-        <v>3.8</v>
+        <f>4.74/2</f>
+        <v>2.37</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>633.33333333333326</v>
+        <v>388.52459016393448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C26">
+        <f>(13.8*10^-3)/2</f>
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="D26">
+        <f>5.58/2</f>
+        <v>2.79</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>404.3478260869565</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C27">
+        <f>(15.9*10^-3)/2</f>
+        <v>7.9500000000000005E-3</v>
+      </c>
+      <c r="D27">
+        <f>6.44/2</f>
+        <v>3.22</v>
+      </c>
+      <c r="E27">
+        <f>D27/C27</f>
+        <v>405.03144654088049</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="C28">
+        <f>(17.6*10^-3)/2</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D28">
+        <f>7.18/2</f>
+        <v>3.59</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E29" si="2">D28/C28</f>
+        <v>407.95454545454544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>0.01</v>
+      </c>
+      <c r="C29">
+        <f>(19.5*10^-3)/2</f>
+        <v>9.75E-3</v>
+      </c>
+      <c r="D29">
+        <f>7.96/2</f>
+        <v>3.98</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>408.20512820512818</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicoline\Desktop\Semester-Projekt-3\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\Semester-Projekt-3\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Fasedrej</t>
+  </si>
+  <si>
+    <t>Amp i DB</t>
+  </si>
+  <si>
+    <t>Integrationstest</t>
+  </si>
+  <si>
+    <t>Amplitude ind i V</t>
+  </si>
+  <si>
+    <t>Amplitude i DB</t>
+  </si>
+  <si>
+    <t>Top til top ind/ud i ms</t>
+  </si>
+  <si>
+    <t>Gain</t>
   </si>
 </sst>
 </file>
@@ -591,8 +609,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="461467712"/>
-        <c:axId val="461467320"/>
+        <c:axId val="343526552"/>
+        <c:axId val="343515576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -766,7 +784,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="461467712"/>
+        <c:axId val="343526552"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -824,12 +842,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461467320"/>
+        <c:crossAx val="343515576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="461467320"/>
+        <c:axId val="343515576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +904,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461467712"/>
+        <c:crossAx val="343526552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1147,8 +1165,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="413072904"/>
-        <c:axId val="413074472"/>
+        <c:axId val="343516752"/>
+        <c:axId val="343517536"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1253,7 +1271,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="413072904"/>
+        <c:axId val="343516752"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1311,12 +1329,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413074472"/>
+        <c:crossAx val="343517536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="413074472"/>
+        <c:axId val="343517536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1391,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="413072904"/>
+        <c:crossAx val="343516752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1696,11 +1714,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409610112"/>
-        <c:axId val="409612072"/>
+        <c:axId val="343517144"/>
+        <c:axId val="343514792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409610112"/>
+        <c:axId val="343517144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,12 +1775,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409612072"/>
+        <c:crossAx val="343514792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409612072"/>
+        <c:axId val="343514792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1837,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409610112"/>
+        <c:crossAx val="343517144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2183,11 +2201,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="409610504"/>
-        <c:axId val="409614424"/>
+        <c:axId val="343515184"/>
+        <c:axId val="343521848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="409610504"/>
+        <c:axId val="343515184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2244,12 +2262,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409614424"/>
+        <c:crossAx val="343521848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="409614424"/>
+        <c:axId val="343521848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,7 +2324,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="409610504"/>
+        <c:crossAx val="343515184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5284,7 +5302,7 @@
   <dimension ref="A2:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5630,6 +5648,9 @@
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C26" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -5873,14 +5894,338 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.16</v>
+      </c>
+      <c r="E4">
+        <f>20*LOG10(D4)</f>
+        <v>6.689075023018618</v>
+      </c>
+      <c r="F4">
+        <f>D4/C4</f>
+        <v>360</v>
+      </c>
+      <c r="G4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>2.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E15" si="0">20*LOG10(D5)</f>
+        <v>8.2994669594163604</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F15" si="1">D5/C5</f>
+        <v>371.42857142857144</v>
+      </c>
+      <c r="G5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D6">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.1499207582642583</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>338.33333333333331</v>
+      </c>
+      <c r="G6">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D7">
+        <v>2.37</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7.4949669202020779</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>338.57142857142856</v>
+      </c>
+      <c r="G7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.9</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>5.5750720190565781</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>316.66666666666663</v>
+      </c>
+      <c r="G8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.21</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.8878454737022139</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>315.71428571428572</v>
+      </c>
+      <c r="G9">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.73</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>4.7609220625759079</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>288.33333333333331</v>
+      </c>
+      <c r="G10">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>2.02</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.107027388932476</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>288.57142857142856</v>
+      </c>
+      <c r="G11">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.55</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8066339634058299</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>258.33333333333331</v>
+      </c>
+      <c r="G12">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.82</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.2014277597014953</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G13">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.41</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.9843822531075976</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>234.99999999999997</v>
+      </c>
+      <c r="G14">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D15">
+        <v>1.64</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.2968769609539574</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>234.28571428571428</v>
+      </c>
+      <c r="G15">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5889,8 +6234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\Semester-Projekt-3\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicoline\Desktop\Semester-Projekt-3\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark3" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId3"/>
     <sheet name="Forstærker" sheetId="1" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -155,9 +158,6 @@
     <t>Fasedrej</t>
   </si>
   <si>
-    <t>Amp i DB</t>
-  </si>
-  <si>
     <t>Integrationstest</t>
   </si>
   <si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Gain</t>
+  </si>
+  <si>
+    <t>Fasedrej i grader</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Filter!$A$3:$A$23</c:f>
+              <c:f>[1]Filter!$A$3:$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -457,7 +460,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Filter!$A$3:$A$23</c:f>
+              <c:f>[1]Filter!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -529,7 +532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Filter!$C$3:$C$23</c:f>
+              <c:f>[1]Filter!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -609,8 +612,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343526552"/>
-        <c:axId val="343515576"/>
+        <c:axId val="470234576"/>
+        <c:axId val="470234968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -644,7 +647,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Filter!$A$5:$A$22</c15:sqref>
+                          <c15:sqref>[1]Filter!$A$5:$A$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -713,7 +716,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Filter!$C$5:$C$22</c15:sqref>
+                          <c15:sqref>[1]Filter!$C$5:$C$22</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -784,7 +787,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343526552"/>
+        <c:axId val="470234576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -842,12 +845,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343515576"/>
+        <c:crossAx val="470234968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343515576"/>
+        <c:axId val="470234968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -904,7 +907,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343526552"/>
+        <c:crossAx val="470234576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1031,7 +1034,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Filter!$A$27:$A$44</c:f>
+              <c:f>[1]Filter!$A$27:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1094,7 +1097,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Filter!$C$27:$C$44</c:f>
+              <c:f>[1]Filter!$C$27:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
@@ -1165,8 +1168,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343516752"/>
-        <c:axId val="343517536"/>
+        <c:axId val="470214584"/>
+        <c:axId val="470210272"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1200,7 +1203,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Filter!$A$27:$A$44</c15:sqref>
+                          <c15:sqref>[1]Filter!$A$27:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1271,7 +1274,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343516752"/>
+        <c:axId val="470214584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1329,12 +1332,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343517536"/>
+        <c:crossAx val="470210272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343517536"/>
+        <c:axId val="470210272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,7 +1394,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343516752"/>
+        <c:crossAx val="470214584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,6 +1444,454 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fasedrejning</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i grader</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.6900481189851275E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.85721062992125985"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serien</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]Filter!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]Filter!$E$3:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-16.559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-31.680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47.52000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-59.22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-69.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-74.304000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-86.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-95.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-110.88000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-126.72000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-131.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-141.768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-156.816</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-151.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="470213800"/>
+        <c:axId val="470218112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="470213800"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470218112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="470218112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470213800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -1714,11 +2165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343517144"/>
-        <c:axId val="343514792"/>
+        <c:axId val="470390536"/>
+        <c:axId val="470397200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343517144"/>
+        <c:axId val="470390536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1775,12 +2226,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343514792"/>
+        <c:crossAx val="470397200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343514792"/>
+        <c:axId val="470397200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +2288,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343517144"/>
+        <c:crossAx val="470390536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1886,7 +2337,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -2201,11 +2652,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343515184"/>
-        <c:axId val="343521848"/>
+        <c:axId val="470403080"/>
+        <c:axId val="470404256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343515184"/>
+        <c:axId val="470403080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,12 +2713,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343521848"/>
+        <c:crossAx val="470404256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343521848"/>
+        <c:axId val="470404256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2775,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343515184"/>
+        <c:crossAx val="470403080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2533,6 +2984,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4082,6 +4573,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4602,20 +5609,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Diagram 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4633,19 +5642,21 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1285875</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4654,6 +5665,103 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Billede 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4362450" y="0"/>
+          <a:ext cx="1009650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagram 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4725,6 +5833,401 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Ark3"/>
+      <sheetName val="Filter"/>
+      <sheetName val="Filter og forstærker sammen"/>
+      <sheetName val="Forstærker"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="C3">
+            <v>2.5</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>5</v>
+          </cell>
+          <cell r="C4">
+            <v>2.5</v>
+          </cell>
+          <cell r="E4">
+            <v>-5.4</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>10</v>
+          </cell>
+          <cell r="C5">
+            <v>2.5</v>
+          </cell>
+          <cell r="E5">
+            <v>-16.559999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>20</v>
+          </cell>
+          <cell r="C6">
+            <v>2.4700000000000002</v>
+          </cell>
+          <cell r="E6">
+            <v>-31.680000000000003</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>30</v>
+          </cell>
+          <cell r="C7">
+            <v>2.36</v>
+          </cell>
+          <cell r="E7">
+            <v>-47.52000000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>35</v>
+          </cell>
+          <cell r="C8">
+            <v>2.27</v>
+          </cell>
+          <cell r="E8">
+            <v>-59.22</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>40</v>
+          </cell>
+          <cell r="C9">
+            <v>2.14</v>
+          </cell>
+          <cell r="E9">
+            <v>-69.12</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43</v>
+          </cell>
+          <cell r="C10">
+            <v>2.04</v>
+          </cell>
+          <cell r="E10">
+            <v>-74.304000000000002</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>46</v>
+          </cell>
+          <cell r="C11">
+            <v>1.97</v>
+          </cell>
+          <cell r="E11">
+            <v>-79.488</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>50</v>
+          </cell>
+          <cell r="C12">
+            <v>1.81</v>
+          </cell>
+          <cell r="E12">
+            <v>-86.4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>53</v>
+          </cell>
+          <cell r="C13">
+            <v>1.72</v>
+          </cell>
+          <cell r="E13">
+            <v>-95.4</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>56</v>
+          </cell>
+          <cell r="C14">
+            <v>1.61</v>
+          </cell>
+          <cell r="E14">
+            <v>-100.8</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>60</v>
+          </cell>
+          <cell r="C15">
+            <v>1.48</v>
+          </cell>
+          <cell r="E15">
+            <v>-108</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>70</v>
+          </cell>
+          <cell r="C16">
+            <v>1.18</v>
+          </cell>
+          <cell r="E16">
+            <v>-110.88000000000002</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>80</v>
+          </cell>
+          <cell r="C17">
+            <v>0.96</v>
+          </cell>
+          <cell r="E17">
+            <v>-126.72000000000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>90</v>
+          </cell>
+          <cell r="C18">
+            <v>0.77</v>
+          </cell>
+          <cell r="E18">
+            <v>-131.22</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>100</v>
+          </cell>
+          <cell r="C19">
+            <v>0.64</v>
+          </cell>
+          <cell r="E19">
+            <v>-135</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>110</v>
+          </cell>
+          <cell r="C20">
+            <v>0.55000000000000004</v>
+          </cell>
+          <cell r="E20">
+            <v>-141.768</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>120</v>
+          </cell>
+          <cell r="C21">
+            <v>0.46</v>
+          </cell>
+          <cell r="E21">
+            <v>-156.816</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>150</v>
+          </cell>
+          <cell r="C22">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="E22">
+            <v>-151.20000000000002</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>500</v>
+          </cell>
+          <cell r="C23">
+            <v>2.75E-2</v>
+          </cell>
+          <cell r="E23">
+            <v>-180</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>10</v>
+          </cell>
+          <cell r="C27">
+            <v>7.9588001734407516</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>20</v>
+          </cell>
+          <cell r="C28">
+            <v>7.8539390651933152</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>30</v>
+          </cell>
+          <cell r="C29">
+            <v>7.4582400594021312</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>35</v>
+          </cell>
+          <cell r="C30">
+            <v>7.1205171438624548</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>40</v>
+          </cell>
+          <cell r="C31">
+            <v>6.6082754669838177</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43</v>
+          </cell>
+          <cell r="C32">
+            <v>6.1926033485179754</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>46</v>
+          </cell>
+          <cell r="C33">
+            <v>5.8893245232318581</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>50</v>
+          </cell>
+          <cell r="C34">
+            <v>5.1535714973836901</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>53</v>
+          </cell>
+          <cell r="C35">
+            <v>4.7105689381509777</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>56</v>
+          </cell>
+          <cell r="C36">
+            <v>4.1365175206369944</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>60</v>
+          </cell>
+          <cell r="C37">
+            <v>3.4052343078991476</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>70</v>
+          </cell>
+          <cell r="C38">
+            <v>1.4376401461225072</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>80</v>
+          </cell>
+          <cell r="C39">
+            <v>-0.35457533920863205</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>90</v>
+          </cell>
+          <cell r="C40">
+            <v>-2.2701854965503623</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>100</v>
+          </cell>
+          <cell r="C41">
+            <v>-3.8764005203222562</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>110</v>
+          </cell>
+          <cell r="C42">
+            <v>-5.1927462101151223</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>120</v>
+          </cell>
+          <cell r="C43">
+            <v>-6.7448433663685181</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>150</v>
+          </cell>
+          <cell r="C44">
+            <v>-10.752040042020878</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5301,8 +6804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5310,6 +6813,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5326,7 +6830,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5342,6 +6846,10 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <f>360*A3*D3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -5356,6 +6864,10 @@
       <c r="D4">
         <v>3</v>
       </c>
+      <c r="E4">
+        <f>-360*A4*D4*10^-3</f>
+        <v>-5.4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -5370,6 +6882,10 @@
       <c r="D5">
         <v>4.5999999999999996</v>
       </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E22" si="0">-360*A5*D5*10^-3</f>
+        <v>-16.559999999999999</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -5385,6 +6901,10 @@
       <c r="D6">
         <v>4.4000000000000004</v>
       </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-31.680000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -5400,6 +6920,10 @@
       <c r="D7">
         <v>4.4000000000000004</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-47.52000000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5415,6 +6939,10 @@
       <c r="D8">
         <v>4.7</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-59.22</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5430,6 +6958,10 @@
       <c r="D9">
         <v>4.8</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-69.12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5445,6 +6977,10 @@
       <c r="D10">
         <v>4.8</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-74.304000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5460,6 +6996,10 @@
       <c r="D11">
         <v>4.8</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-79.488</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -5475,6 +7015,10 @@
       <c r="D12">
         <v>4.8</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-86.4</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -5490,6 +7034,10 @@
       <c r="D13">
         <v>5</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-95.4</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -5505,6 +7053,10 @@
       <c r="D14">
         <v>5</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-100.8</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -5520,6 +7072,10 @@
       <c r="D15">
         <v>5</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-108</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -5535,8 +7091,12 @@
       <c r="D16">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-110.88000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>80</v>
       </c>
@@ -5550,8 +7110,12 @@
       <c r="D17">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-126.72000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>90</v>
       </c>
@@ -5565,8 +7129,12 @@
       <c r="D18">
         <v>4.05</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-131.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>100</v>
       </c>
@@ -5580,8 +7148,12 @@
       <c r="D19">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>110</v>
       </c>
@@ -5595,8 +7167,12 @@
       <c r="D20">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-141.768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>120</v>
       </c>
@@ -5610,8 +7186,12 @@
       <c r="D21">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-156.816</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>150</v>
       </c>
@@ -5625,8 +7205,12 @@
       <c r="D22">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>-151.20000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>500</v>
       </c>
@@ -5640,19 +7224,19 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -5664,7 +7248,7 @@
         <v>7.9588001734407516</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>20</v>
       </c>
@@ -5673,11 +7257,11 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C44" si="0">20*LOG10(B28)</f>
+        <f t="shared" ref="C28:C44" si="1">20*LOG10(B28)</f>
         <v>7.8539390651933152</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -5686,11 +7270,11 @@
         <v>2.36</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4582400594021312</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>35</v>
       </c>
@@ -5699,11 +7283,11 @@
         <v>2.27</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1205171438624548</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>40</v>
       </c>
@@ -5712,11 +7296,11 @@
         <v>2.14</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6082754669838177</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>43</v>
       </c>
@@ -5725,7 +7309,7 @@
         <v>2.04</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.1926033485179754</v>
       </c>
     </row>
@@ -5738,7 +7322,7 @@
         <v>1.97</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8893245232318581</v>
       </c>
     </row>
@@ -5751,7 +7335,7 @@
         <v>1.81</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1535714973836901</v>
       </c>
     </row>
@@ -5764,7 +7348,7 @@
         <v>1.72</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7105689381509777</v>
       </c>
     </row>
@@ -5777,7 +7361,7 @@
         <v>1.61</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1365175206369944</v>
       </c>
     </row>
@@ -5790,7 +7374,7 @@
         <v>1.48</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4052343078991476</v>
       </c>
     </row>
@@ -5803,7 +7387,7 @@
         <v>1.18</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4376401461225072</v>
       </c>
     </row>
@@ -5816,7 +7400,7 @@
         <v>0.96</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.35457533920863205</v>
       </c>
     </row>
@@ -5829,7 +7413,7 @@
         <v>0.77</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.2701854965503623</v>
       </c>
     </row>
@@ -5842,7 +7426,7 @@
         <v>0.64</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.8764005203222562</v>
       </c>
     </row>
@@ -5855,7 +7439,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.1927462101151223</v>
       </c>
     </row>
@@ -5868,7 +7452,7 @@
         <v>0.46</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.7448433663685181</v>
       </c>
     </row>
@@ -5881,7 +7465,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-10.752040042020878</v>
       </c>
     </row>
@@ -5896,7 +7480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -5913,7 +7497,7 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -5921,19 +7505,19 @@
         <v>37</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>41</v>
@@ -6234,7 +7818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ark3" sheetId="3" r:id="rId1"/>
     <sheet name="Filter" sheetId="4" r:id="rId2"/>
-    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId3"/>
-    <sheet name="Forstærker" sheetId="1" r:id="rId4"/>
+    <sheet name="Vandsøjle" sheetId="6" r:id="rId3"/>
+    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId4"/>
+    <sheet name="Forstærker" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -174,6 +175,18 @@
   </si>
   <si>
     <t>Fasedrej i grader</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>Vandsøjle i mm</t>
+  </si>
+  <si>
+    <t>Målt input i V</t>
+  </si>
+  <si>
+    <t>Output i V</t>
   </si>
 </sst>
 </file>
@@ -369,69 +382,9 @@
             <c:strRef>
               <c:f>[1]Filter!$A$3:$A$23</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>500</c:v>
+                  <c:v>1 5 10 20 30 35 40 43 46 50 53 56 60 70 80 90 100 110 120 150 500</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -612,8 +565,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470234576"/>
-        <c:axId val="470234968"/>
+        <c:axId val="412177272"/>
+        <c:axId val="412178840"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -787,7 +740,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470234576"/>
+        <c:axId val="412177272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -845,12 +798,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470234968"/>
+        <c:crossAx val="412178840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470234968"/>
+        <c:axId val="412178840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,7 +860,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470234576"/>
+        <c:crossAx val="412177272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,7 +924,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1168,8 +1120,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470214584"/>
-        <c:axId val="470210272"/>
+        <c:axId val="412174920"/>
+        <c:axId val="412180016"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1274,7 +1226,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470214584"/>
+        <c:axId val="412174920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1332,12 +1284,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470210272"/>
+        <c:crossAx val="412180016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470210272"/>
+        <c:axId val="412180016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1346,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470214584"/>
+        <c:crossAx val="412174920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1716,11 +1668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470213800"/>
-        <c:axId val="470218112"/>
+        <c:axId val="412168648"/>
+        <c:axId val="412169824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470213800"/>
+        <c:axId val="412168648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1780,12 +1732,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470218112"/>
+        <c:crossAx val="412169824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470218112"/>
+        <c:axId val="412169824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +1794,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470213800"/>
+        <c:crossAx val="412168648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2165,11 +2117,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470390536"/>
-        <c:axId val="470397200"/>
+        <c:axId val="412170608"/>
+        <c:axId val="412171000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470390536"/>
+        <c:axId val="412170608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2226,12 +2178,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470397200"/>
+        <c:crossAx val="412171000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470397200"/>
+        <c:axId val="412171000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2240,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470390536"/>
+        <c:crossAx val="412170608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2652,11 +2604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="470403080"/>
-        <c:axId val="470404256"/>
+        <c:axId val="415839880"/>
+        <c:axId val="415843408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="470403080"/>
+        <c:axId val="415839880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2713,12 +2665,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470404256"/>
+        <c:crossAx val="415843408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="470404256"/>
+        <c:axId val="415843408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +2727,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470403080"/>
+        <c:crossAx val="415839880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6804,7 +6756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -7477,6 +7429,90 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1360</v>
+      </c>
+      <c r="D2">
+        <f>2.1*10^-3</f>
+        <v>2.1000000000000003E-3</v>
+      </c>
+      <c r="E2">
+        <f>945*10^-3</f>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>680</v>
+      </c>
+      <c r="D3">
+        <f>-261*10^-3</f>
+        <v>-0.26100000000000001</v>
+      </c>
+      <c r="E3">
+        <f>-8*10^-3</f>
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>136</v>
+      </c>
+      <c r="D4">
+        <f>-1.8*10^-3</f>
+        <v>-1.8000000000000002E-3</v>
+      </c>
+      <c r="E4">
+        <f>-24.2*10^-3</f>
+        <v>-2.4199999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
@@ -7814,11 +7850,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark3" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -188,6 +188,15 @@
   <si>
     <t>Output i V</t>
   </si>
+  <si>
+    <t>Logartmisk skala (amplitude værdier i dB)</t>
+  </si>
+  <si>
+    <t>Frekvens i Hz</t>
+  </si>
+  <si>
+    <t>Oprindelig input</t>
+  </si>
 </sst>
 </file>
 
@@ -225,12 +234,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -265,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -277,6 +298,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,8 +588,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412177272"/>
-        <c:axId val="412178840"/>
+        <c:axId val="386455736"/>
+        <c:axId val="386456128"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -740,7 +763,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412177272"/>
+        <c:axId val="386455736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -798,12 +821,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412178840"/>
+        <c:crossAx val="386456128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412178840"/>
+        <c:axId val="386456128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +883,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412177272"/>
+        <c:crossAx val="386455736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -924,6 +947,37 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Amplitude</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" baseline="0"/>
+              <a:t> i dB (y), frekvenser i log på x akse</a:t>
+            </a:r>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1120,8 +1174,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412174920"/>
-        <c:axId val="412180016"/>
+        <c:axId val="386456520"/>
+        <c:axId val="386457304"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1226,7 +1280,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412174920"/>
+        <c:axId val="386456520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1284,12 +1338,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412180016"/>
+        <c:crossAx val="386457304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412180016"/>
+        <c:axId val="386457304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1400,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412174920"/>
+        <c:crossAx val="386456520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1668,11 +1722,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412168648"/>
-        <c:axId val="412169824"/>
+        <c:axId val="386458480"/>
+        <c:axId val="386460048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412168648"/>
+        <c:axId val="386458480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1713,7 +1767,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1732,12 +1786,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412169824"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="386460048"/>
+        <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412169824"/>
+        <c:axId val="386460048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1848,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412168648"/>
+        <c:crossAx val="386458480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,6 +1898,1113 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lav amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.689075023018618</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1499207582642583</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5750720190565781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7609220625759079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8066339634058299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9843822531075976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Høj amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.2994669594163604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8878454737022139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.107027388932476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2014277597014953</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2968769609539574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="504323808"/>
+        <c:axId val="504325376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="504323808"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504325376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="504325376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="504323808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lav amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.42185192475940508"/>
+                  <c:y val="0.31746609798775155"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0,0306x + 3,2515</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9963</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$D$4,'Filter og forstærker sammen'!$D$6,'Filter og forstærker sammen'!$D$8,'Filter og forstærker sammen'!$D$10,'Filter og forstærker sammen'!$D$12,'Filter og forstærker sammen'!$D$14)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Høj amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.44129636920384951"/>
+                  <c:y val="-0.16457531350247886"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0,0379x + 3,9123</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0,9985</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$D$5,'Filter og forstærker sammen'!$D$7,'Filter og forstærker sammen'!$D$9,'Filter og forstærker sammen'!$D$11,'Filter og forstærker sammen'!$D$13,'Filter og forstærker sammen'!$D$15)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="392141552"/>
+        <c:axId val="392132536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="392141552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392132536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="392132536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="392141552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -2117,11 +3278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412170608"/>
-        <c:axId val="412171000"/>
+        <c:axId val="389224064"/>
+        <c:axId val="389219360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412170608"/>
+        <c:axId val="389224064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,12 +3339,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412171000"/>
+        <c:crossAx val="389219360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412171000"/>
+        <c:axId val="389219360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2240,7 +3401,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412170608"/>
+        <c:crossAx val="389224064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2289,7 +3450,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -2604,11 +3765,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415839880"/>
-        <c:axId val="415843408"/>
+        <c:axId val="389217400"/>
+        <c:axId val="389214656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="415839880"/>
+        <c:axId val="389217400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2665,12 +3826,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415843408"/>
+        <c:crossAx val="389214656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="415843408"/>
+        <c:axId val="389214656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2727,7 +3888,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415839880"/>
+        <c:crossAx val="389217400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2976,6 +4137,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5041,6 +6282,1038 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5563,13 +7836,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>185738</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5726,16 +7999,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1076325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5756,16 +8029,148 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1009650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Billede 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8191500" y="190500"/>
+          <a:ext cx="1009650" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6756,8 +9161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7187,6 +9592,9 @@
       <c r="B26" s="6" t="s">
         <v>39</v>
       </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -7430,10 +9838,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7443,9 +9851,10 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -7458,8 +9867,11 @@
       <c r="E1" t="s">
         <v>51</v>
       </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -7474,8 +9886,12 @@
         <f>945*10^-3</f>
         <v>0.94500000000000006</v>
       </c>
+      <c r="F2">
+        <f t="shared" ref="F2:F3" si="0">E2/D2</f>
+        <v>449.99999999999994</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -7483,15 +9899,18 @@
         <v>680</v>
       </c>
       <c r="D3">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="E3">
         <f>-261*10^-3</f>
         <v>-0.26100000000000001</v>
       </c>
-      <c r="E3">
-        <f>-8*10^-3</f>
-        <v>-8.0000000000000002E-3</v>
+      <c r="F3">
+        <f>E3/D3</f>
+        <v>32.625</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -7505,6 +9924,10 @@
       <c r="E4">
         <f>-24.2*10^-3</f>
         <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <f>E4/D4</f>
+        <v>13.444444444444443</v>
       </c>
     </row>
   </sheetData>
@@ -7516,8 +9939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7538,7 +9961,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>43</v>
@@ -7560,25 +9983,29 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="7">
         <v>35</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>2.16</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="7">
         <f>20*LOG10(D4)</f>
         <v>6.689075023018618</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <f>D4/C4</f>
         <v>360</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>4.8</v>
+      </c>
+      <c r="H4" s="7">
+        <f>-360*B4*G4*10^-3</f>
+        <v>-60.480000000000004</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -7602,27 +10029,35 @@
       <c r="G5">
         <v>4.8</v>
       </c>
+      <c r="H5" s="8">
+        <f t="shared" ref="H5:H15" si="2">-360*B5*G5*10^-3</f>
+        <v>-60.480000000000004</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="7">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <f t="shared" si="0"/>
         <v>6.1499207582642583</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <f t="shared" si="1"/>
         <v>338.33333333333331</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>4.5</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>-64.8</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -7646,27 +10081,35 @@
       <c r="G7">
         <v>4.5</v>
       </c>
+      <c r="H7" s="8">
+        <f t="shared" si="2"/>
+        <v>-64.8</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="B8" s="7">
         <v>45</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>1.9</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="7">
         <f t="shared" si="0"/>
         <v>5.5750720190565781</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>316.66666666666663</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>4.7</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>-76.14</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -7690,27 +10133,35 @@
       <c r="G9">
         <v>4.7</v>
       </c>
+      <c r="H9" s="8">
+        <f t="shared" si="2"/>
+        <v>-76.14</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="B10" s="7">
         <v>50</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>1.73</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>4.7609220625759079</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <f t="shared" si="1"/>
         <v>288.33333333333331</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>-79.2</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -7734,27 +10185,35 @@
       <c r="G11">
         <v>4.4000000000000004</v>
       </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>-79.2</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="7">
         <v>55</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>1.55</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>3.8066339634058299</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <f t="shared" si="1"/>
         <v>258.33333333333331</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>4.7</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>-93.06</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -7778,27 +10237,35 @@
       <c r="G13">
         <v>4.7</v>
       </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>-93.06</v>
+      </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="7">
         <v>60</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>1.41</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="7">
         <f t="shared" si="0"/>
         <v>2.9843822531075976</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <f t="shared" si="1"/>
         <v>234.99999999999997</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>-95.04000000000002</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -7821,6 +10288,10 @@
       </c>
       <c r="G15">
         <v>4.4000000000000004</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>-95.04000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -7847,15 +10318,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,14 +10337,16 @@
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -7889,7 +10363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7901,7 +10375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7912,8 +10386,14 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7933,8 +10413,16 @@
         <f>D6/C6</f>
         <v>784</v>
       </c>
+      <c r="F6">
+        <f>C6+0.0012</f>
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="G6">
+        <f>D6/F6</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7953,8 +10441,16 @@
         <f t="shared" ref="E7:E13" si="0">D7/C7</f>
         <v>666.66666666666674</v>
       </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F13" si="1">C7+0.0012</f>
+        <v>3.15E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G13" si="2">D7/F7</f>
+        <v>412.69841269841271</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7973,8 +10469,16 @@
         <f t="shared" si="0"/>
         <v>578.46153846153834</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.45E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>422.47191011235952</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7993,8 +10497,16 @@
         <f t="shared" si="0"/>
         <v>541.77215189873414</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>415.53398058252429</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8012,8 +10524,16 @@
         <f t="shared" si="0"/>
         <v>479.27927927927931</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>394.07407407407408</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8031,8 +10551,16 @@
         <f t="shared" si="0"/>
         <v>474.19354838709671</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>397.29729729729729</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8050,8 +10578,16 @@
         <f t="shared" si="0"/>
         <v>455.26315789473682</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>393.18181818181813</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8069,8 +10605,16 @@
         <f t="shared" si="0"/>
         <v>455.75757575757569</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>397.88359788359787</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>33</v>
       </c>
@@ -8078,7 +10622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -8095,7 +10639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -8115,8 +10659,16 @@
         <f>D20/C20</f>
         <v>350</v>
       </c>
+      <c r="F20">
+        <f>C20-0.1375*10^-3</f>
+        <v>9.6250000000000003E-4</v>
+      </c>
+      <c r="G20">
+        <f>D20/F20</f>
+        <v>400</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8133,11 +10685,19 @@
         <v>0.77</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E26" si="1">D21/C21</f>
+        <f t="shared" ref="E21:E26" si="3">D21/C21</f>
         <v>385</v>
       </c>
+      <c r="F21">
+        <f t="shared" ref="F21:F29" si="4">C21-0.1375*10^-3</f>
+        <v>1.8625E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ref="G21:G29" si="5">D21/F21</f>
+        <v>413.42281879194633</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -8154,11 +10714,19 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>380.32786885245901</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>2.9124999999999997E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>398.28326180257511</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -8175,11 +10743,19 @@
         <v>1.5449999999999999</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>393.63057324840764</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>3.7874999999999996E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>407.92079207920796</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -8196,11 +10772,19 @@
         <v>1.9850000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>389.21568627450984</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>4.9624999999999999E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -8217,11 +10801,19 @@
         <v>2.37</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>388.52459016393448</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>5.9624999999999999E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>397.48427672955978</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7</v>
       </c>
@@ -8237,11 +10829,19 @@
         <v>2.79</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>404.3478260869565</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>6.7625000000000011E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>412.56931608133078</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -8260,8 +10860,16 @@
         <f>D27/C27</f>
         <v>405.03144654088049</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>412.16</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -8277,11 +10885,19 @@
         <v>3.59</v>
       </c>
       <c r="E28">
-        <f t="shared" ref="E28:E29" si="2">D28/C28</f>
+        <f t="shared" ref="E28:E29" si="6">D28/C28</f>
         <v>407.95454545454544</v>
       </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>8.6625000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>414.43001443001441</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -8297,8 +10913,16 @@
         <v>3.98</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>408.20512820512818</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>9.6124999999999995E-3</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>414.0442132639792</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ark3" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -196,6 +196,36 @@
   </si>
   <si>
     <t>Oprindelig input</t>
+  </si>
+  <si>
+    <t>Vandhøjde</t>
+  </si>
+  <si>
+    <t>Massefylde vand=0,997 g/cm2</t>
+  </si>
+  <si>
+    <t>Tyngde acceleration m/s^2</t>
+  </si>
+  <si>
+    <t>Diameter i meter</t>
+  </si>
+  <si>
+    <t>Areal af cirkel i m2</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>Indgang i mV</t>
+  </si>
+  <si>
+    <t>Udgang mV voltmeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udgang analog </t>
+  </si>
+  <si>
+    <t>Atmosfærisk</t>
   </si>
 </sst>
 </file>
@@ -362,7 +392,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -588,8 +617,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386455736"/>
-        <c:axId val="386456128"/>
+        <c:axId val="402363400"/>
+        <c:axId val="402364184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -763,7 +792,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386455736"/>
+        <c:axId val="402363400"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -821,12 +850,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386456128"/>
+        <c:crossAx val="402364184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386456128"/>
+        <c:axId val="402364184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +912,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386455736"/>
+        <c:crossAx val="402363400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -977,7 +1006,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1174,8 +1202,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386456520"/>
-        <c:axId val="386457304"/>
+        <c:axId val="405755112"/>
+        <c:axId val="405757464"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1280,7 +1308,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386456520"/>
+        <c:axId val="405755112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1338,12 +1366,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386457304"/>
+        <c:crossAx val="405757464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386457304"/>
+        <c:axId val="405757464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1400,7 +1428,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386456520"/>
+        <c:crossAx val="405755112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1494,7 +1522,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1722,11 +1749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="386458480"/>
-        <c:axId val="386460048"/>
+        <c:axId val="405764520"/>
+        <c:axId val="405760208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="386458480"/>
+        <c:axId val="405764520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1767,7 +1794,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1786,12 +1813,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386460048"/>
+        <c:crossAx val="405760208"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="386460048"/>
+        <c:axId val="405760208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1848,7 +1875,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386458480"/>
+        <c:crossAx val="405764520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2093,11 +2120,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="504323808"/>
-        <c:axId val="504325376"/>
+        <c:axId val="405760600"/>
+        <c:axId val="405757856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="504323808"/>
+        <c:axId val="405760600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2120,7 +2147,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2187,12 +2213,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504325376"/>
+        <c:crossAx val="405757856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="504325376"/>
+        <c:axId val="405757856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +2239,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2280,7 +2305,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504323808"/>
+        <c:crossAx val="405760600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2737,11 +2762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="392141552"/>
-        <c:axId val="392132536"/>
+        <c:axId val="405764912"/>
+        <c:axId val="405761384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="392141552"/>
+        <c:axId val="405764912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
@@ -2763,7 +2788,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2830,12 +2854,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392132536"/>
+        <c:crossAx val="405761384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="392132536"/>
+        <c:axId val="405761384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2880,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2923,7 +2946,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="392141552"/>
+        <c:crossAx val="405764912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2937,7 +2960,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3044,7 +3066,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3278,11 +3299,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389224064"/>
-        <c:axId val="389219360"/>
+        <c:axId val="405765696"/>
+        <c:axId val="405754328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389224064"/>
+        <c:axId val="405765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,12 +3360,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389219360"/>
+        <c:crossAx val="405754328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389219360"/>
+        <c:axId val="405754328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3422,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389224064"/>
+        <c:crossAx val="405765696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3495,7 +3516,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3765,11 +3785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="389217400"/>
-        <c:axId val="389214656"/>
+        <c:axId val="405762560"/>
+        <c:axId val="405758248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="389217400"/>
+        <c:axId val="405762560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,12 +3846,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389214656"/>
+        <c:crossAx val="405758248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="389214656"/>
+        <c:axId val="405758248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3888,7 +3908,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="389217400"/>
+        <c:crossAx val="405762560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9161,7 +9181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9838,10 +9858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9852,9 +9872,14 @@
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="27.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -9870,8 +9895,23 @@
       <c r="F1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -9887,11 +9927,27 @@
         <v>0.94500000000000006</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F3" si="0">E2/D2</f>
+        <f t="shared" ref="F2" si="0">E2/D2</f>
         <v>449.99999999999994</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <f xml:space="preserve"> PI()*(I2/2)^2</f>
+        <v>1.0207034531513238E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.114</v>
+      </c>
+      <c r="J2">
+        <v>0.09</v>
+      </c>
+      <c r="K2">
+        <v>9970</v>
+      </c>
+      <c r="L2">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -9909,8 +9965,24 @@
         <f>E3/D3</f>
         <v>32.625</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f xml:space="preserve"> PI()*(I2/2)^2</f>
+        <v>1.0207034531513238E-2</v>
+      </c>
+      <c r="I3">
+        <v>0.114</v>
+      </c>
+      <c r="J3">
+        <v>0.11</v>
+      </c>
+      <c r="K3">
+        <v>9970</v>
+      </c>
+      <c r="L3">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -9928,6 +10000,137 @@
       <c r="F4">
         <f>E4/D4</f>
         <v>13.444444444444443</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H5" si="1" xml:space="preserve"> PI()*(I3/2)^2</f>
+        <v>1.0207034531513238E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.114</v>
+      </c>
+      <c r="K4">
+        <v>9970</v>
+      </c>
+      <c r="L4">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+      <c r="H13">
+        <f>(K2*H2*J2*L2)/H2</f>
+        <v>8811.4860000000008</v>
+      </c>
+      <c r="I13">
+        <v>66.09</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <v>57.6</v>
+      </c>
+      <c r="L13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f>(K2*H2*J2*L2)/H2</f>
+        <v>8811.4860000000008</v>
+      </c>
+      <c r="I14">
+        <v>66.09</v>
+      </c>
+      <c r="J14">
+        <v>0.21</v>
+      </c>
+      <c r="K14">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f>(K2*H2*J2*L2)/H2</f>
+        <v>8811.4860000000008</v>
+      </c>
+      <c r="I15">
+        <v>66.09</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.11</v>
+      </c>
+      <c r="H17">
+        <f>(K2*H2*J3*L2)/H2</f>
+        <v>10769.594000000001</v>
+      </c>
+      <c r="I17">
+        <v>80.78</v>
+      </c>
+      <c r="K17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f>(K2*H2*J3*L2)/H2</f>
+        <v>10769.594000000001</v>
+      </c>
+      <c r="I18">
+        <v>80.78</v>
+      </c>
+      <c r="K18">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f>(K2*H2*J3*L2)/H2</f>
+        <v>10769.594000000001</v>
+      </c>
+      <c r="I19">
+        <v>80.78</v>
+      </c>
+      <c r="K19">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20">
+        <v>0.04</v>
+      </c>
+      <c r="K20">
+        <v>-8.48</v>
       </c>
     </row>
   </sheetData>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Amplitude ud i V</t>
   </si>
   <si>
-    <t>For meget offset!</t>
-  </si>
-  <si>
     <t>Fasedrej</t>
   </si>
   <si>
@@ -225,7 +222,19 @@
     <t xml:space="preserve">Udgang analog </t>
   </si>
   <si>
-    <t>Atmosfærisk</t>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>Ud</t>
+  </si>
+  <si>
+    <t>Atmosfærisk tryk</t>
+  </si>
+  <si>
+    <t>Gammel</t>
+  </si>
+  <si>
+    <t>Ny</t>
   </si>
 </sst>
 </file>
@@ -316,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -330,6 +339,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,6 +402,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -617,8 +628,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402363400"/>
-        <c:axId val="402364184"/>
+        <c:axId val="382075080"/>
+        <c:axId val="382068416"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -792,7 +803,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402363400"/>
+        <c:axId val="382075080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -850,12 +861,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402364184"/>
+        <c:crossAx val="382068416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402364184"/>
+        <c:axId val="382068416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +923,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402363400"/>
+        <c:crossAx val="382075080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1006,6 +1017,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1202,8 +1214,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405755112"/>
-        <c:axId val="405757464"/>
+        <c:axId val="382069592"/>
+        <c:axId val="382077432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1308,7 +1320,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405755112"/>
+        <c:axId val="382069592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1366,12 +1378,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405757464"/>
+        <c:crossAx val="382077432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405757464"/>
+        <c:axId val="382077432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1440,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405755112"/>
+        <c:crossAx val="382069592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1522,6 +1534,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1749,11 +1762,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405764520"/>
-        <c:axId val="405760208"/>
+        <c:axId val="382070376"/>
+        <c:axId val="382073904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405764520"/>
+        <c:axId val="382070376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1813,12 +1826,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405760208"/>
+        <c:crossAx val="382073904"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405760208"/>
+        <c:axId val="382073904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1875,7 +1888,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405764520"/>
+        <c:crossAx val="382070376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1938,6 +1951,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sammenhæng</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mellem væsketryk og udgangsspænding</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1948,7 +2022,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Lav amplitude</c:v>
+            <c:v>Måling</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1972,140 +2046,161 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.847769028871391E-2"/>
+                  <c:y val="0.41162037037037036"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>y = 1,0261x - 24,331</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:t>R² = 0,9999</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1400"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:f>(Vandsøjle!$I$21,Vandsøjle!$I$23,Vandsøjle!$I$25,Vandsøjle!$I$27,Vandsøjle!$I$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>43.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>53.97</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>85.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>105.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>113.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14)</c:f>
+              <c:f>(Vandsøjle!$K$21,Vandsøjle!$K$23,Vandsøjle!$K$25,Vandsøjle!$K$27,Vandsøjle!$K$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.689075023018618</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.1499207582642583</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5750720190565781</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7609220625759079</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8066339634058299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9843822531075976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Høj amplitude</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.2994669594163604</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.4949669202020779</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.8878454737022139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.107027388932476</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2014277597014953</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.2968769609539574</c:v>
+                  <c:v>92.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,15 +2215,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405760600"/>
-        <c:axId val="405757856"/>
+        <c:axId val="381179040"/>
+        <c:axId val="381184528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405760600"/>
+        <c:axId val="381179040"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2146,36 +2239,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2213,12 +2276,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405757856"/>
+        <c:crossAx val="381184528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405757856"/>
+        <c:axId val="381184528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,36 +2301,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2305,7 +2338,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405760600"/>
+        <c:crossAx val="381179040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,7 +2411,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Lav amplitude</c:v>
+            <c:v>Høj amplitude</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2402,169 +2435,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.42185192475940508"/>
-                  <c:y val="0.31746609798775155"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = -0,0306x + 3,2515</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0,9963</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15,'Filter og forstærker sammen'!$B$17,'Filter og forstærker sammen'!$B$19,'Filter og forstærker sammen'!$B$21,'Filter og forstærker sammen'!$B$23,'Filter og forstærker sammen'!$B$25,'Filter og forstærker sammen'!$B$27,'Filter og forstærker sammen'!$B$29,'Filter og forstærker sammen'!$B$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$D$4,'Filter og forstærker sammen'!$D$6,'Filter og forstærker sammen'!$D$8,'Filter og forstærker sammen'!$D$10,'Filter og forstærker sammen'!$D$12,'Filter og forstærker sammen'!$D$14)</c:f>
+              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15,'Filter og forstærker sammen'!$E$17,'Filter og forstærker sammen'!$E$19,'Filter og forstærker sammen'!$E$21,'Filter og forstærker sammen'!$E$23,'Filter og forstærker sammen'!$E$25,'Filter og forstærker sammen'!$E$27,'Filter og forstærker sammen'!$E$29,'Filter og forstærker sammen'!$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.16</c:v>
+                  <c:v>8.8652597491738998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0299999999999998</c:v>
+                  <c:v>8.8652597491738998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9</c:v>
+                  <c:v>8.6272752831797472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.73</c:v>
+                  <c:v>8.6272752831797472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.55</c:v>
+                  <c:v>8.2994669594163604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.41</c:v>
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8878454737022139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.107027388932476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2014277597014953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2968769609539574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2788670461367357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4116214857141456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0980391997148637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-37.077439286435244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,7 +2543,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Høj amplitude</c:v>
+            <c:v>Lav amplitude</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2599,155 +2567,104 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.44129636920384951"/>
-                  <c:y val="-0.16457531350247886"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent4"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = -0,0379x + 3,9123</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent4"/>
-                        </a:solidFill>
-                      </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="accent4"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>R² = 0,9985</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15)</c:f>
+              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="5">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
                   <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$D$5,'Filter og forstærker sammen'!$D$7,'Filter og forstærker sammen'!$D$9,'Filter og forstærker sammen'!$D$11,'Filter og forstærker sammen'!$D$13,'Filter og forstærker sammen'!$D$15)</c:f>
+              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14,'Filter og forstærker sammen'!$E$16,'Filter og forstærker sammen'!$E$18,'Filter og forstærker sammen'!$E$20,'Filter og forstærker sammen'!$E$22,'Filter og forstærker sammen'!$E$24,'Filter og forstærker sammen'!$E$26,'Filter og forstærker sammen'!$E$28,'Filter og forstærker sammen'!$E$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2.6</c:v>
+                  <c:v>7.4949669202020779</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.37</c:v>
+                  <c:v>7.5132722792177074</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.21</c:v>
+                  <c:v>7.5132722792177074</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.02</c:v>
+                  <c:v>7.2345567203518568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.82</c:v>
+                  <c:v>6.689075023018618</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.64</c:v>
+                  <c:v>6.1499207582642583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5750720190565781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7609220625759079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8066339634058299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9843822531075976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0230504489476258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7932398685801263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0823996531184958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,12 +2679,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405764912"/>
-        <c:axId val="405761384"/>
+        <c:axId val="382080176"/>
+        <c:axId val="382068024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405764912"/>
+        <c:axId val="382080176"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="1"/>
         </c:scaling>
@@ -2788,6 +2706,32 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frekvens i Hz, logaritmisk skala</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2854,12 +2798,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405761384"/>
+        <c:crossAx val="382068024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405761384"/>
+        <c:axId val="382068024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,6 +2824,40 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Amplitude længde</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t> mV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2946,7 +2924,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405764912"/>
+        <c:crossAx val="382080176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2958,37 +2936,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3066,6 +3013,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3299,11 +3247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405765696"/>
-        <c:axId val="405754328"/>
+        <c:axId val="382072728"/>
+        <c:axId val="382070768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405765696"/>
+        <c:axId val="382072728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,12 +3308,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405754328"/>
+        <c:crossAx val="382070768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405754328"/>
+        <c:axId val="382070768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3422,7 +3370,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405765696"/>
+        <c:crossAx val="382072728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3516,6 +3464,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3785,11 +3734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405762560"/>
-        <c:axId val="405758248"/>
+        <c:axId val="382071160"/>
+        <c:axId val="382074688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405762560"/>
+        <c:axId val="382071160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,12 +3795,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405758248"/>
+        <c:crossAx val="382074688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405758248"/>
+        <c:axId val="382074688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3857,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405762560"/>
+        <c:crossAx val="382071160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8019,16 +7968,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1076325</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8047,25 +7996,28 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8073,7 +8025,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8100,7 +8052,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:clrChange>
             <a:clrFrom>
               <a:srgbClr val="FFFFFF"/>
@@ -8147,7 +8099,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9181,7 +9133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -9207,7 +9159,7 @@
         <v>38</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9613,7 +9565,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9858,10 +9810,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9881,34 +9833,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -10002,7 +9954,7 @@
         <v>13.444444444444443</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H5" si="1" xml:space="preserve"> PI()*(I3/2)^2</f>
+        <f t="shared" ref="H4" si="1" xml:space="preserve"> PI()*(I3/2)^2</f>
         <v>1.0207034531513238E-2</v>
       </c>
       <c r="I4">
@@ -10017,19 +9969,19 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>61</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -10054,6 +10006,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
       <c r="H14">
         <f>(K2*H2*J2*L2)/H2</f>
         <v>8811.4860000000008</v>
@@ -10069,6 +10030,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>0.04</v>
+      </c>
+      <c r="D15">
+        <v>-8.48</v>
+      </c>
       <c r="H15">
         <f>(K2*H2*J2*L2)/H2</f>
         <v>8811.4860000000008</v>
@@ -10081,6 +10051,11 @@
       </c>
       <c r="K15">
         <v>57.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="7:11" x14ac:dyDescent="0.25">
@@ -10122,19 +10097,84 @@
         <v>53.3</v>
       </c>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="H20" t="s">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H21">
+        <f>(K2*H2*G21*L2)/H2</f>
+        <v>5776.4186</v>
+      </c>
+      <c r="I21">
+        <v>43.33</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="H23">
+        <f>(K2*H2*G23*L2)/H2</f>
+        <v>7196.0469000000003</v>
+      </c>
+      <c r="I23">
+        <v>53.97</v>
+      </c>
+      <c r="K23">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="H25">
+        <f>(K2*H2*G25*L2)/H2</f>
+        <v>11405.9791</v>
+      </c>
+      <c r="I25">
+        <v>85.55</v>
+      </c>
+      <c r="K25">
         <v>64</v>
       </c>
-      <c r="J20">
-        <v>0.04</v>
-      </c>
-      <c r="K20">
-        <v>-8.48</v>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H27">
+        <f>(K2*H2*G27*L2)/H2</f>
+        <v>14000.4722</v>
+      </c>
+      <c r="I27">
+        <v>105.01</v>
+      </c>
+      <c r="K27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.155</v>
+      </c>
+      <c r="H29">
+        <f>(K2*H2*G29*L2)/H2</f>
+        <v>15175.337000000001</v>
+      </c>
+      <c r="I29">
+        <v>113.82</v>
+      </c>
+      <c r="K29">
+        <v>92.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10142,8 +10182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,360 +10199,786 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D4" s="7">
-        <v>2.16</v>
+        <f>(4.74/2)</f>
+        <v>2.37</v>
       </c>
       <c r="E4" s="7">
-        <f>20*LOG10(D4)</f>
-        <v>6.689075023018618</v>
-      </c>
-      <c r="F4" s="7">
-        <f>D4/C4</f>
-        <v>360</v>
-      </c>
+        <f>20*LOG(D4)</f>
+        <v>7.4949669202020779</v>
+      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7">
-        <v>4.8</v>
-      </c>
-      <c r="H4" s="7">
-        <f>-360*B4*G4*10^-3</f>
-        <v>-60.480000000000004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>2.6</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E15" si="0">20*LOG10(D5)</f>
-        <v>8.2994669594163604</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ref="F5:F15" si="1">D5/C5</f>
-        <v>371.42857142857144</v>
+        <f>(5.55/2)</f>
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E11" si="0">20*LOG(D5)</f>
+        <v>8.8652597491738998</v>
       </c>
       <c r="G5">
-        <v>4.8</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" ref="H5:H15" si="2">-360*B5*G5*10^-3</f>
-        <v>-60.480000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D6" s="7">
-        <v>2.0299999999999998</v>
+        <f>(4.75/2)</f>
+        <v>2.375</v>
       </c>
       <c r="E6" s="7">
         <f t="shared" si="0"/>
-        <v>6.1499207582642583</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="1"/>
-        <v>338.33333333333331</v>
-      </c>
+        <v>7.5132722792177074</v>
+      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7">
-        <v>4.5</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>-64.8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D7">
-        <v>2.37</v>
-      </c>
-      <c r="E7">
+        <f>(5.55/2)</f>
+        <v>2.7749999999999999</v>
+      </c>
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>7.4949669202020779</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>338.57142857142856</v>
+        <v>8.8652597491738998</v>
       </c>
       <c r="G7">
-        <v>4.5</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="2"/>
-        <v>-64.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D8" s="7">
-        <v>1.9</v>
+        <f>(4.75/2)</f>
+        <v>2.375</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="0"/>
-        <v>5.5750720190565781</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="1"/>
-        <v>316.66666666666663</v>
-      </c>
+        <v>7.5132722792177074</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>-76.14</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>2.21</v>
-      </c>
-      <c r="E9">
+        <f>(5.4/2)</f>
+        <v>2.7</v>
+      </c>
+      <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>6.8878454737022139</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>315.71428571428572</v>
+        <v>8.6272752831797472</v>
       </c>
       <c r="G9">
-        <v>4.7</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="2"/>
-        <v>-76.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D10" s="7">
-        <v>1.73</v>
+        <f>4.6/2</f>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="0"/>
-        <v>4.7609220625759079</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>288.33333333333331</v>
-      </c>
+        <v>7.2345567203518568</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>-79.2</v>
-      </c>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11">
-        <v>2.02</v>
-      </c>
-      <c r="E11">
+        <f>5.4/2</f>
+        <v>2.7</v>
+      </c>
+      <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>6.107027388932476</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>288.57142857142856</v>
+        <v>8.6272752831797472</v>
       </c>
       <c r="G11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="2"/>
-        <v>-79.2</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C12" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D12" s="7">
-        <v>1.55</v>
+        <v>2.16</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8066339634058299</v>
+        <f>20*LOG10(D12)</f>
+        <v>6.689075023018618</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>258.33333333333331</v>
+        <f>D12/C12</f>
+        <v>360</v>
       </c>
       <c r="G12" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>-93.06</v>
+        <f>-360*B12*G12*10^-3</f>
+        <v>-60.480000000000004</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D13">
-        <v>1.82</v>
+        <v>2.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
-        <v>5.2014277597014953</v>
+        <f t="shared" ref="E13:E33" si="1">20*LOG10(D13)</f>
+        <v>8.2994669594163604</v>
       </c>
       <c r="F13">
-        <f t="shared" si="1"/>
-        <v>260</v>
+        <f t="shared" ref="F13:F23" si="2">D13/C13</f>
+        <v>371.42857142857144</v>
       </c>
       <c r="G13">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="2"/>
-        <v>-93.06</v>
+        <f t="shared" ref="H13:H33" si="3">-360*B13*G13*10^-3</f>
+        <v>-60.480000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D14" s="7">
-        <v>1.41</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>2.9843822531075976</v>
+        <f t="shared" si="1"/>
+        <v>6.1499207582642583</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
-        <v>234.99999999999997</v>
+        <f t="shared" si="2"/>
+        <v>338.33333333333331</v>
       </c>
       <c r="G14" s="7">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>-95.04000000000002</v>
+        <f t="shared" si="3"/>
+        <v>-64.8</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D15">
+        <v>2.37</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>7.4949669202020779</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>338.57142857142856</v>
+      </c>
+      <c r="G15">
+        <v>4.5</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="3"/>
+        <v>-64.8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>5.5750720190565781</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
+        <v>316.66666666666663</v>
+      </c>
+      <c r="G16" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="3"/>
+        <v>-76.14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>2.21</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>6.8878454737022139</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>315.71428571428572</v>
+      </c>
+      <c r="G17">
+        <v>4.7</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="3"/>
+        <v>-76.14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>50</v>
+      </c>
+      <c r="C18" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1.73</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>4.7609220625759079</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
+        <v>288.33333333333331</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="3"/>
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D19">
+        <v>2.02</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>6.107027388932476</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>288.57142857142856</v>
+      </c>
+      <c r="G19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>55</v>
+      </c>
+      <c r="C20" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>3.8066339634058299</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
+        <v>258.33333333333331</v>
+      </c>
+      <c r="G20" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="3"/>
+        <v>-93.06</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D21">
+        <v>1.82</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>5.2014277597014953</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="G21">
+        <v>4.7</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="3"/>
+        <v>-93.06</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>60</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.41</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>2.9843822531075976</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
+        <v>234.99999999999997</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
+        <v>-95.04000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D23">
         <v>1.64</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="E23">
+        <f t="shared" si="1"/>
         <v>4.2968769609539574</v>
       </c>
-      <c r="F15">
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>234.28571428571428</v>
+      </c>
+      <c r="G23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H23" s="8">
+        <f t="shared" si="3"/>
+        <v>-95.04000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="7">
+        <f>2.25/2</f>
+        <v>1.125</v>
+      </c>
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
-        <v>234.28571428571428</v>
-      </c>
-      <c r="G15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="2"/>
-        <v>-95.04000000000002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1.0230504489476258</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
+        <v>-113.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>70</v>
+      </c>
+      <c r="C25">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D25">
+        <f>2.6/2</f>
+        <v>1.3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>2.2788670461367357</v>
+      </c>
+      <c r="G25">
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="8">
+        <f t="shared" si="3"/>
+        <v>-113.4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>90</v>
+      </c>
+      <c r="C26" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="9">
+        <f>1.45/2</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.7932398685801263</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="3"/>
+        <v>-134.46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D27">
+        <f>1.7/2</f>
+        <v>0.85</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>-1.4116214857141456</v>
+      </c>
+      <c r="G27">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="H27" s="8">
+        <f t="shared" si="3"/>
+        <v>-134.46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>100</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D28" s="7">
+        <f>1.25/2</f>
+        <v>0.625</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>-4.0823996531184958</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7">
+        <v>3.8</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="3"/>
+        <v>-136.80000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D29">
+        <f>1.4/2</f>
+        <v>0.7</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>-3.0980391997148637</v>
+      </c>
+      <c r="G29">
+        <v>3.8</v>
+      </c>
+      <c r="H29" s="8">
+        <f t="shared" si="3"/>
+        <v>-136.80000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>200</v>
+      </c>
+      <c r="C30" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D30" s="7">
+        <f>(3.25/2)*10^-3</f>
+        <v>1.6250000000000001E-3</v>
+      </c>
+      <c r="E30" s="7">
+        <f t="shared" si="1"/>
+        <v>-55.782932693702136</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="3"/>
+        <v>-156.96</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>200</v>
+      </c>
+      <c r="C31">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D31">
+        <f>(3.65/2)*10^-3</f>
+        <v>1.825E-3</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>-54.774742624150136</v>
+      </c>
+      <c r="G31">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H31" s="8">
+        <f t="shared" si="3"/>
+        <v>-156.96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>500</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D32" s="7">
+        <f>(50/2)*10^-3</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>-32.041199826559243</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" si="3"/>
+        <v>-181.8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>500</v>
+      </c>
+      <c r="C33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D33">
+        <f>(60/2)*10^-3</f>
+        <v>0.03</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>-30.457574905606752</v>
+      </c>
+      <c r="G33">
+        <v>1.01</v>
+      </c>
+      <c r="H33" s="8">
+        <f t="shared" si="3"/>
+        <v>-181.8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>1000</v>
+      </c>
+      <c r="C34" s="7">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D34" s="7">
+        <f>(20/2)*10^-3</f>
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="7">
+        <f>20*LOG10(D34)</f>
+        <v>-40</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f>-180</f>
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1000</v>
+      </c>
+      <c r="C35">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <f>(28/2)*10^-3</f>
+        <v>1.4E-2</v>
+      </c>
+      <c r="E35">
+        <f>20*LOG10(D35)</f>
+        <v>-37.077439286435244</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -10521,7 +10987,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10530,7 +10997,7 @@
   <dimension ref="A2:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A4" sqref="A4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10566,31 +11033,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>1*10^-3</f>
-        <v>1E-3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>2*10^-3</f>
-        <v>2E-3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,17 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark3" sheetId="3" r:id="rId1"/>
-    <sheet name="Filter" sheetId="4" r:id="rId2"/>
-    <sheet name="Vandsøjle" sheetId="6" r:id="rId3"/>
-    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId4"/>
-    <sheet name="Forstærker" sheetId="1" r:id="rId5"/>
+    <sheet name="Filter" sheetId="4" r:id="rId1"/>
+    <sheet name="Vandsøjle" sheetId="6" r:id="rId2"/>
+    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId3"/>
+    <sheet name="Forstærker" sheetId="1" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -48,97 +47,7 @@
     <t>Vin målt i V</t>
   </si>
   <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>Lower 95,0%</t>
-  </si>
-  <si>
-    <t>Upper 95,0%</t>
-  </si>
-  <si>
-    <t>RESIDUAL OUTPUT</t>
-  </si>
-  <si>
-    <t>Observation</t>
-  </si>
-  <si>
-    <t>Predicted 0,0029</t>
-  </si>
-  <si>
-    <t>Residuals</t>
-  </si>
-  <si>
-    <t>Sinus Signal</t>
-  </si>
-  <si>
     <t>DC Signal</t>
-  </si>
-  <si>
-    <t>1 Hz</t>
   </si>
   <si>
     <t>Amplitude ind</t>
@@ -153,19 +62,10 @@
     <t>Amplitude ud i V</t>
   </si>
   <si>
-    <t>Fasedrej</t>
-  </si>
-  <si>
-    <t>Integrationstest</t>
-  </si>
-  <si>
     <t>Amplitude ind i V</t>
   </si>
   <si>
     <t>Amplitude i DB</t>
-  </si>
-  <si>
-    <t>Top til top ind/ud i ms</t>
   </si>
   <si>
     <t>Gain</t>
@@ -174,83 +74,81 @@
     <t>Fasedrej i grader</t>
   </si>
   <si>
-    <t>mmHg</t>
-  </si>
-  <si>
-    <t>Vandsøjle i mm</t>
-  </si>
-  <si>
-    <t>Målt input i V</t>
-  </si>
-  <si>
-    <t>Output i V</t>
-  </si>
-  <si>
-    <t>Logartmisk skala (amplitude værdier i dB)</t>
-  </si>
-  <si>
     <t>Frekvens i Hz</t>
   </si>
   <si>
     <t>Oprindelig input</t>
   </si>
   <si>
-    <t>Vandhøjde</t>
+    <t>Tidsforskydning i ms</t>
   </si>
   <si>
-    <t>Massefylde vand=0,997 g/cm2</t>
+    <t>Bilag xx: Data for integrationstest af forstærker og filter sammen</t>
   </si>
   <si>
-    <t>Tyngde acceleration m/s^2</t>
+    <t>Udregning af vandsøjle tryk</t>
   </si>
   <si>
-    <t>Diameter i meter</t>
+    <t>A, søjlens grundareal [m^2]</t>
   </si>
   <si>
-    <t>Areal af cirkel i m2</t>
+    <t>ρ, massefylde af vand [kg/m^3]</t>
   </si>
   <si>
-    <t>Pascal</t>
+    <t>g, tyngdeaccleration [m/s^2]</t>
   </si>
   <si>
-    <t>Indgang i mV</t>
+    <t>Diameter af søjle [m]</t>
   </si>
   <si>
-    <t>Udgang mV voltmeter</t>
+    <t>(ρ·A·h·g)/A</t>
   </si>
   <si>
-    <t xml:space="preserve">Udgang analog </t>
+    <t>p, vandsøjlenstryk [Pa]</t>
   </si>
   <si>
-    <t>Ind</t>
+    <t>mmHg, vandsøjlenstryk i mmHg</t>
   </si>
   <si>
-    <t>Ud</t>
+    <t>h, højde af vandstand [m]</t>
   </si>
   <si>
-    <t>Atmosfærisk tryk</t>
+    <t>Målinger af spændings output</t>
   </si>
   <si>
-    <t>Gammel</t>
+    <t>Spænding udgang af filter i mV</t>
   </si>
   <si>
-    <t>Ny</t>
+    <t>Amplitude i dB</t>
+  </si>
+  <si>
+    <t>Modultest af forstærkeren</t>
+  </si>
+  <si>
+    <t>Sinus Signal 1 Hz</t>
+  </si>
+  <si>
+    <t>Bilag XX: Integrationstest med vandsøjle, sammenhæng mellem væsketryk og udgangsspænding på filteret</t>
+  </si>
+  <si>
+    <t>Bilag XX: Modultest af analogt filter</t>
+  </si>
+  <si>
+    <t>Indgangssignalet, 5µV*5V*XmmHg</t>
+  </si>
+  <si>
+    <t>=5*10^-6*5*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -267,6 +165,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -305,7 +232,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -313,33 +240,34 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -628,8 +555,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382075080"/>
-        <c:axId val="382068416"/>
+        <c:axId val="463316480"/>
+        <c:axId val="463321184"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -803,7 +730,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382075080"/>
+        <c:axId val="463316480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -861,12 +788,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382068416"/>
+        <c:crossAx val="463321184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382068416"/>
+        <c:axId val="463321184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -923,7 +850,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382075080"/>
+        <c:crossAx val="463316480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1017,7 +944,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1214,8 +1140,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382069592"/>
-        <c:axId val="382077432"/>
+        <c:axId val="463314520"/>
+        <c:axId val="463321968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1320,10 +1246,12 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382069592"/>
+        <c:axId val="463314520"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="500"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1378,12 +1306,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382077432"/>
+        <c:crossAx val="463321968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382077432"/>
+        <c:axId val="463321968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1440,7 +1368,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382069592"/>
+        <c:crossAx val="463314520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1534,7 +1462,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1762,11 +1689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382070376"/>
-        <c:axId val="382073904"/>
+        <c:axId val="463319616"/>
+        <c:axId val="463311384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382070376"/>
+        <c:axId val="463319616"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1826,12 +1753,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382073904"/>
+        <c:crossAx val="463311384"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382073904"/>
+        <c:axId val="463311384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +1815,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382070376"/>
+        <c:crossAx val="463319616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1982,7 +1909,14 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.109838568566026"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2159,48 +2093,54 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Vandsøjle!$I$21,Vandsøjle!$I$23,Vandsøjle!$I$25,Vandsøjle!$I$27,Vandsøjle!$I$29)</c:f>
+              <c:f>Vandsøjle!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.33</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>53.97</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.55</c:v>
+                  <c:v>8.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.01</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113.82</c:v>
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Vandsøjle!$K$21,Vandsøjle!$K$23,Vandsøjle!$K$25,Vandsøjle!$K$27,Vandsøjle!$K$29)</c:f>
+              <c:f>Vandsøjle!$C$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.5</c:v>
+                  <c:v>9.2499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.94500000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2215,11 +2155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381179040"/>
-        <c:axId val="381184528"/>
+        <c:axId val="463322752"/>
+        <c:axId val="463323536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381179040"/>
+        <c:axId val="463322752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,12 +2216,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381184528"/>
+        <c:crossAx val="463323536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381184528"/>
+        <c:axId val="463323536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2278,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381179040"/>
+        <c:crossAx val="463322752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2401,17 +2341,58 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10580314960629922"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.87119685039370076"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Høj amplitude</c:v>
+            <c:v>jk</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2425,246 +2406,177 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30554584523088463"/>
+                  <c:y val="5.1608659892139815E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>y = 103,66x + 2,0173</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1200"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15,'Filter og forstærker sammen'!$B$17,'Filter og forstærker sammen'!$B$19,'Filter og forstærker sammen'!$B$21,'Filter og forstærker sammen'!$B$23,'Filter og forstærker sammen'!$B$25,'Filter og forstærker sammen'!$B$27,'Filter og forstærker sammen'!$B$29,'Filter og forstærker sammen'!$B$35)</c:f>
+              <c:f>Vandsøjle!$C$20:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>8.3000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>9.2499999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>0.94500000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15,'Filter og forstærker sammen'!$E$17,'Filter og forstærker sammen'!$E$19,'Filter og forstærker sammen'!$E$21,'Filter og forstærker sammen'!$E$23,'Filter og forstærker sammen'!$E$25,'Filter og forstærker sammen'!$E$27,'Filter og forstærker sammen'!$E$29,'Filter og forstærker sammen'!$E$35)</c:f>
+              <c:f>Vandsøjle!$C$19:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>8.8652597491738998</c:v>
+                  <c:v>4.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8652597491738998</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6272752831797472</c:v>
+                  <c:v>8.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6272752831797472</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2994669594163604</c:v>
+                  <c:v>11.38</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4949669202020779</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.8878454737022139</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.107027388932476</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2014277597014953</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.2968769609539574</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.2788670461367357</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.4116214857141456</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.0980391997148637</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-37.077439286435244</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Lav amplitude</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$34)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14,'Filter og forstærker sammen'!$E$16,'Filter og forstærker sammen'!$E$18,'Filter og forstærker sammen'!$E$20,'Filter og forstærker sammen'!$E$22,'Filter og forstærker sammen'!$E$24,'Filter og forstærker sammen'!$E$26,'Filter og forstærker sammen'!$E$28,'Filter og forstærker sammen'!$E$34)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>7.4949669202020779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5132722792177074</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5132722792177074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2345567203518568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.689075023018618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1499207582642583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5750720190565781</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7609220625759079</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8066339634058299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9843822531075976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0230504489476258</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.7932398685801263</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.0823996531184958</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2679,15 +2591,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382080176"/>
-        <c:axId val="382068024"/>
+        <c:axId val="463317656"/>
+        <c:axId val="463312168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382080176"/>
+        <c:axId val="463317656"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2705,62 +2615,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Frekvens i Hz, logaritmisk skala</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2798,12 +2652,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382068024"/>
+        <c:crossAx val="463312168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382068024"/>
+        <c:axId val="463312168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,70 +2677,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Amplitude længde</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> i</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t> mV</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2924,7 +2714,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382080176"/>
+        <c:crossAx val="463317656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2936,6 +2726,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3008,12 +2830,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
+              <a:t>Integrationstest af forstærker og filter sammen </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7mV amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15,'Filter og forstærker sammen'!$B$17,'Filter og forstærker sammen'!$B$19,'Filter og forstærker sammen'!$B$21,'Filter og forstærker sammen'!$B$23,'Filter og forstærker sammen'!$B$25,'Filter og forstærker sammen'!$B$27,'Filter og forstærker sammen'!$B$29,'Filter og forstærker sammen'!$B$31,'Filter og forstærker sammen'!$B$33,'Filter og forstærker sammen'!$B$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15,'Filter og forstærker sammen'!$E$17,'Filter og forstærker sammen'!$E$19,'Filter og forstærker sammen'!$E$21,'Filter og forstærker sammen'!$E$23,'Filter og forstærker sammen'!$E$25,'Filter og forstærker sammen'!$E$27,'Filter og forstærker sammen'!$E$29,'Filter og forstærker sammen'!$E$31,'Filter og forstærker sammen'!$E$33,'Filter og forstærker sammen'!$E$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.8652597491738998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8652597491738998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6272752831797472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6272752831797472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2994669594163604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8878454737022139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.107027388932476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2014277597014953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2968769609539574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2788670461367357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4116214857141456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0980391997148637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54.774742624150136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.457574905606752</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-37.077439286435244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6mV amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$30,'Filter og forstærker sammen'!$B$32,'Filter og forstærker sammen'!$B$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14,'Filter og forstærker sammen'!$E$16,'Filter og forstærker sammen'!$E$18,'Filter og forstærker sammen'!$E$20,'Filter og forstærker sammen'!$E$22,'Filter og forstærker sammen'!$E$24,'Filter og forstærker sammen'!$E$26,'Filter og forstærker sammen'!$E$28,'Filter og forstærker sammen'!$E$30,'Filter og forstærker sammen'!$E$32,'Filter og forstærker sammen'!$E$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5132722792177074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5132722792177074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2345567203518568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.689075023018618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1499207582642583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5750720190565781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7609220625759079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8066339634058299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9843822531075976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0230504489476258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7932398685801263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0823996531184958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-55.782932693702136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-32.041199826559243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="463317264"/>
+        <c:axId val="463318048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="463317264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frekvens i Hz, logaritmisk skala</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463318048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="463318048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Amplitude i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463317264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
               <a:t>DC-forstærkning</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3247,11 +3761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382072728"/>
-        <c:axId val="382070768"/>
+        <c:axId val="463312560"/>
+        <c:axId val="463312952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382072728"/>
+        <c:axId val="463312560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3308,12 +3822,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382070768"/>
+        <c:crossAx val="463312952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382070768"/>
+        <c:axId val="463312952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,7 +3884,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382072728"/>
+        <c:crossAx val="463312560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3419,7 +3933,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="da-DK"/>
@@ -3464,7 +3978,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3648,7 +4161,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Forstærker!$C$20:$C$29</c:f>
+              <c:f>Forstærker!$C$36:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3687,7 +4200,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Forstærker!$D$20:$D$29</c:f>
+              <c:f>Forstærker!$D$36:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3734,11 +4247,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382071160"/>
-        <c:axId val="382074688"/>
+        <c:axId val="463318440"/>
+        <c:axId val="463314912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382071160"/>
+        <c:axId val="463318440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3795,12 +4308,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382074688"/>
+        <c:crossAx val="463314912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382074688"/>
+        <c:axId val="463314912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +4370,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382071160"/>
+        <c:crossAx val="463318440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4186,6 +4699,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7798,20 +8351,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>185738</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7835,15 +8904,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7866,81 +8935,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Billede 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4362450" y="0"/>
-          <a:ext cx="1009650" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7955,7 +8959,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7968,16 +8972,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7996,6 +9000,85 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Tekstfelt 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="1538287"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8003,16 +9086,51 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666748</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1" title="Integrationstest af forstærker og filter sammen"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8033,116 +9151,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Billede 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:clrChange>
-            <a:clrFrom>
-              <a:srgbClr val="FFFFFF"/>
-            </a:clrFrom>
-            <a:clrTo>
-              <a:srgbClr val="FFFFFF">
-                <a:alpha val="0"/>
-              </a:srgbClr>
-            </a:clrTo>
-          </a:clrChange>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="8191500" y="190500"/>
-          <a:ext cx="1009650" cy="161925"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagram 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8822,319 +9840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.98903825705003645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.97819667390857401</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.97092889854476538</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.442414792498223E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>8.0290382994415759E-6</v>
-      </c>
-      <c r="D12" s="1">
-        <v>8.0290382994415759E-6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>134.5936858174926</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1.3754281075210246E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.7896170055842413E-7</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5.9653900186141374E-8</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.208E-6</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1.0944689706037297E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.9762240508334462E-4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.7525334503580621</v>
-      </c>
-      <c r="E17" s="1">
-        <v>7.0592211331814148E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <v>-1.709429833517827E-4</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2.3598809245592421E-3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-1.709429833517827E-4</v>
-      </c>
-      <c r="I17" s="1">
-        <v>2.3598809245592421E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1.4542724686545149E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.2535262682563357E-4</v>
-      </c>
-      <c r="D18" s="2">
-        <v>11.601451884031267</v>
-      </c>
-      <c r="E18" s="2">
-        <v>1.3754281075210235E-3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.0553444645556697E-3</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.8532004727533601E-3</v>
-      </c>
-      <c r="H18" s="2">
-        <v>1.0553444645556697E-3</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.8532004727533601E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
-        <v>3.5958176166894953E-3</v>
-      </c>
-      <c r="C25" s="1">
-        <v>4.1823833105050084E-6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>2</v>
-      </c>
-      <c r="B26" s="1">
-        <v>4.8319492150458321E-3</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.1805078495416826E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>5.4572863765672743E-3</v>
-      </c>
-      <c r="C27" s="1">
-        <v>-2.5728637656727369E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
-        <v>6.6207043514908857E-3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2.7929564850911505E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>5</v>
-      </c>
-      <c r="B29" s="2">
-        <v>7.1442424402065122E-3</v>
-      </c>
-      <c r="C29" s="2">
-        <v>-1.4424244020651202E-4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E44"/>
-  <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9145,44 +9854,31 @@
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>46</v>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-      <c r="C3">
-        <v>2.5</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>360*A3*D3</f>
-        <v>0</v>
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2.5</v>
@@ -9191,16 +9887,16 @@
         <v>2.5</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f>-360*A4*D4*10^-3</f>
-        <v>-5.4</v>
+        <f>360*A4*D4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2.5</v>
@@ -9209,594 +9905,612 @@
         <v>2.5</v>
       </c>
       <c r="D5">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E22" si="0">-360*A5*D5*10^-3</f>
-        <v>-16.559999999999999</v>
+        <f>-360*A5*D5*10^-3</f>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>2.5</v>
       </c>
       <c r="C6">
-        <f>4.94/2</f>
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>-31.680000000000003</v>
+        <f t="shared" ref="E6:E23" si="0">-360*A6*D6*10^-3</f>
+        <v>-16.559999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2.5</v>
       </c>
       <c r="C7">
-        <f>4.72/2</f>
-        <v>2.36</v>
+        <f>4.94/2</f>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D7">
         <v>4.4000000000000004</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>-47.52000000000001</v>
+        <v>-31.680000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>2.5</v>
       </c>
       <c r="C8">
-        <f>4.54/2</f>
-        <v>2.27</v>
+        <f>4.72/2</f>
+        <v>2.36</v>
       </c>
       <c r="D8">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>-59.22</v>
+        <v>-47.52000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B9">
         <v>2.5</v>
       </c>
       <c r="C9">
-        <f>4.28/2</f>
-        <v>2.14</v>
+        <f>4.54/2</f>
+        <v>2.27</v>
       </c>
       <c r="D9">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>-69.12</v>
+        <v>-59.22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>2.5</v>
       </c>
       <c r="C10">
-        <f>4.08/2</f>
-        <v>2.04</v>
+        <f>4.28/2</f>
+        <v>2.14</v>
       </c>
       <c r="D10">
         <v>4.8</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>-74.304000000000002</v>
+        <v>-69.12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>2.5</v>
       </c>
       <c r="C11">
-        <f>3.94/2</f>
-        <v>1.97</v>
+        <f>4.08/2</f>
+        <v>2.04</v>
       </c>
       <c r="D11">
         <v>4.8</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>-79.488</v>
+        <v>-74.304000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>2.5</v>
       </c>
       <c r="C12">
-        <f>3.62/2</f>
-        <v>1.81</v>
+        <f>3.94/2</f>
+        <v>1.97</v>
       </c>
       <c r="D12">
         <v>4.8</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>-86.4</v>
+        <v>-79.488</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
       <c r="C13">
-        <f>3.44/2</f>
-        <v>1.72</v>
+        <f>3.62/2</f>
+        <v>1.81</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>-95.4</v>
+        <v>-86.4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>2.5</v>
       </c>
       <c r="C14">
-        <f>3.22/2</f>
-        <v>1.61</v>
+        <f>3.44/2</f>
+        <v>1.72</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>-100.8</v>
+        <v>-95.4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <v>2.5</v>
       </c>
       <c r="C15">
-        <f>2.96/2</f>
-        <v>1.48</v>
+        <f>3.22/2</f>
+        <v>1.61</v>
       </c>
       <c r="D15">
         <v>5</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>-108</v>
+        <v>-100.8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>2.5</v>
       </c>
       <c r="C16">
-        <f>2.36/2</f>
-        <v>1.18</v>
+        <f>2.96/2</f>
+        <v>1.48</v>
       </c>
       <c r="D16">
-        <v>4.4000000000000004</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>-110.88000000000002</v>
+        <v>-108</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>2.5</v>
       </c>
       <c r="C17">
-        <f>1.92/2</f>
-        <v>0.96</v>
+        <f>2.36/2</f>
+        <v>1.18</v>
       </c>
       <c r="D17">
         <v>4.4000000000000004</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>-126.72000000000001</v>
+        <v>-110.88000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B18">
         <v>2.5</v>
       </c>
       <c r="C18">
-        <f>1.54/2</f>
-        <v>0.77</v>
+        <f>1.92/2</f>
+        <v>0.96</v>
       </c>
       <c r="D18">
-        <v>4.05</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>-131.22</v>
+        <v>-126.72000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>2.5</v>
       </c>
       <c r="C19">
-        <f>1.28/2</f>
-        <v>0.64</v>
+        <f>1.54/2</f>
+        <v>0.77</v>
       </c>
       <c r="D19">
-        <v>3.75</v>
+        <v>4.05</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>-135</v>
+        <v>-131.22</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>2.5</v>
       </c>
       <c r="C20">
-        <f>1.1/2</f>
-        <v>0.55000000000000004</v>
+        <f>1.28/2</f>
+        <v>0.64</v>
       </c>
       <c r="D20">
-        <v>3.58</v>
+        <v>3.75</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-141.768</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B21">
         <v>2.5</v>
       </c>
       <c r="C21">
-        <f>(920*10^-3)/2</f>
-        <v>0.46</v>
+        <f>1.1/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D21">
-        <v>3.63</v>
+        <v>3.58</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-156.816</v>
+        <v>-141.768</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="B22">
         <v>2.5</v>
       </c>
       <c r="C22">
-        <f>(580*10^-3)/2</f>
-        <v>0.28999999999999998</v>
+        <f>(920*10^-3)/2</f>
+        <v>0.46</v>
       </c>
       <c r="D22">
-        <v>2.8</v>
+        <v>3.63</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-151.20000000000002</v>
+        <v>-156.816</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="B23">
         <v>2.5</v>
       </c>
       <c r="C23">
+        <f>(580*10^-3)/2</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D23">
+        <v>2.8</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>-151.20000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>500</v>
+      </c>
+      <c r="B24">
+        <v>2.5</v>
+      </c>
+      <c r="C24">
         <f>(55*10^-3)/2</f>
         <v>2.75E-2</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>-180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
-      </c>
-      <c r="B27">
-        <v>2.5</v>
-      </c>
-      <c r="C27">
-        <f>20*LOG10(B27)</f>
-        <v>7.9588001734407516</v>
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <f>4.94/2</f>
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:C44" si="1">20*LOG10(B28)</f>
-        <v>7.8539390651933152</v>
+        <f>20*LOG10(B28)</f>
+        <v>7.9588001734407516</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <f>4.72/2</f>
-        <v>2.36</v>
+        <f>4.94/2</f>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>7.4582400594021312</v>
+        <f t="shared" ref="C29:C45" si="1">20*LOG10(B29)</f>
+        <v>7.8539390651933152</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <f>4.54/2</f>
-        <v>2.27</v>
+        <f>4.72/2</f>
+        <v>2.36</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>7.1205171438624548</v>
+        <v>7.4582400594021312</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <f>4.28/2</f>
-        <v>2.14</v>
+        <f>4.54/2</f>
+        <v>2.27</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>6.6082754669838177</v>
+        <v>7.1205171438624548</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <f>4.08/2</f>
-        <v>2.04</v>
+        <f>4.28/2</f>
+        <v>2.14</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>6.1926033485179754</v>
+        <v>6.6082754669838177</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <f>3.94/2</f>
-        <v>1.97</v>
+        <f>4.08/2</f>
+        <v>2.04</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>5.8893245232318581</v>
+        <v>6.1926033485179754</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <f>3.62/2</f>
-        <v>1.81</v>
+        <f>3.94/2</f>
+        <v>1.97</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>5.1535714973836901</v>
+        <v>5.8893245232318581</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35">
-        <f>3.44/2</f>
-        <v>1.72</v>
+        <f>3.62/2</f>
+        <v>1.81</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>4.7105689381509777</v>
+        <v>5.1535714973836901</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36">
-        <f>3.22/2</f>
-        <v>1.61</v>
+        <f>3.44/2</f>
+        <v>1.72</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>4.1365175206369944</v>
+        <v>4.7105689381509777</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B37">
-        <f>2.96/2</f>
-        <v>1.48</v>
+        <f>3.22/2</f>
+        <v>1.61</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>3.4052343078991476</v>
+        <v>4.1365175206369944</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B38">
-        <f>2.36/2</f>
-        <v>1.18</v>
+        <f>2.96/2</f>
+        <v>1.48</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>1.4376401461225072</v>
+        <v>3.4052343078991476</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B39">
-        <f>1.92/2</f>
-        <v>0.96</v>
+        <f>2.36/2</f>
+        <v>1.18</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>-0.35457533920863205</v>
+        <v>1.4376401461225072</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <f>1.54/2</f>
-        <v>0.77</v>
+        <f>1.92/2</f>
+        <v>0.96</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>-2.2701854965503623</v>
+        <v>-0.35457533920863205</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B41">
-        <f>1.28/2</f>
-        <v>0.64</v>
+        <f>1.54/2</f>
+        <v>0.77</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>-3.8764005203222562</v>
+        <v>-2.2701854965503623</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B42">
-        <f>1.1/2</f>
-        <v>0.55000000000000004</v>
+        <f>1.28/2</f>
+        <v>0.64</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>-5.1927462101151223</v>
+        <v>-3.8764005203222562</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B43">
-        <f>(920*10^-3)/2</f>
-        <v>0.46</v>
+        <f>1.1/2</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>-6.7448433663685181</v>
+        <v>-5.1927462101151223</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>120</v>
+      </c>
+      <c r="B44">
+        <f>(920*10^-3)/2</f>
+        <v>0.46</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-6.7448433663685181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>150</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <f>(580*10^-3)/2</f>
         <v>0.28999999999999998</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <f t="shared" si="1"/>
         <v>-10.752040042020878</v>
       </c>
@@ -9808,368 +10522,281 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L29"/>
+  <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="27.28515625" customWidth="1"/>
     <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>56</v>
+    <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <f>PI()*(C6/2)^2</f>
+        <v>1.0207034531513238E-2</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>997</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9.82</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7.3499999999999996E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.155</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8">
+        <f>(C8*C7*D10*C9)/C7</f>
+        <v>577.64185999999984</v>
+      </c>
+      <c r="E11" s="8">
+        <f>(C8*C7*E10*C9)/C7</f>
+        <v>719.60468999999989</v>
+      </c>
+      <c r="F11" s="8">
+        <f>(C8*C7*F10*C9)/C7</f>
+        <v>1140.5979100000002</v>
+      </c>
+      <c r="G11" s="8">
+        <f>(C8*C7*G10*C9)/C7</f>
+        <v>1400.0472199999999</v>
+      </c>
+      <c r="H11" s="8">
+        <f>(C8*C7*H10*C9)/C7</f>
+        <v>1517.5337</v>
+      </c>
+      <c r="I11">
+        <f>(C8*C7*I10*C9)/C7</f>
+        <v>881.14859999999987</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <v>4.33</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>8.56</v>
+      </c>
+      <c r="G12" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>11.38</v>
+      </c>
+      <c r="I12" s="15">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="D19" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="E19" s="8">
+        <v>8.56</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10.5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>11.38</v>
+      </c>
+      <c r="H19" s="15">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>1360</v>
-      </c>
-      <c r="D2">
-        <f>2.1*10^-3</f>
-        <v>2.1000000000000003E-3</v>
-      </c>
-      <c r="E2">
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10">
+        <f>20*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="10">
+        <f>31*10^-3</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="E20" s="10">
+        <f>64*10^-3</f>
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="F20" s="10">
+        <f>83*10^-3</f>
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G20" s="10">
+        <f>92.5*10^-3</f>
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="H20" s="10">
         <f>945*10^-3</f>
         <v>0.94500000000000006</v>
       </c>
-      <c r="F2">
-        <f t="shared" ref="F2" si="0">E2/D2</f>
-        <v>449.99999999999994</v>
-      </c>
-      <c r="H2">
-        <f xml:space="preserve"> PI()*(I2/2)^2</f>
-        <v>1.0207034531513238E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.114</v>
-      </c>
-      <c r="J2">
-        <v>0.09</v>
-      </c>
-      <c r="K2">
-        <v>9970</v>
-      </c>
-      <c r="L2">
-        <v>9.82</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>50</v>
-      </c>
-      <c r="B3">
-        <v>680</v>
-      </c>
-      <c r="D3">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="E3">
-        <f>-261*10^-3</f>
-        <v>-0.26100000000000001</v>
-      </c>
-      <c r="F3">
-        <f>E3/D3</f>
-        <v>32.625</v>
-      </c>
-      <c r="H3">
-        <f xml:space="preserve"> PI()*(I2/2)^2</f>
-        <v>1.0207034531513238E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.114</v>
-      </c>
-      <c r="J3">
-        <v>0.11</v>
-      </c>
-      <c r="K3">
-        <v>9970</v>
-      </c>
-      <c r="L3">
-        <v>9.82</v>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>60</v>
+      </c>
+      <c r="F23">
+        <v>80</v>
+      </c>
+      <c r="G23">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>136</v>
-      </c>
-      <c r="D4">
-        <f>-1.8*10^-3</f>
-        <v>-1.8000000000000002E-3</v>
-      </c>
-      <c r="E4">
-        <f>-24.2*10^-3</f>
-        <v>-2.4199999999999999E-2</v>
-      </c>
-      <c r="F4">
-        <f>E4/D4</f>
-        <v>13.444444444444443</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4" si="1" xml:space="preserve"> PI()*(I3/2)^2</f>
-        <v>1.0207034531513238E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.114</v>
-      </c>
-      <c r="K4">
-        <v>9970</v>
-      </c>
-      <c r="L4">
-        <v>9.82</v>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" t="s">
-        <v>62</v>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>1/((5*10^-6)*5)</f>
+        <v>40000</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <v>0.09</v>
-      </c>
-      <c r="H13">
-        <f>(K2*H2*J2*L2)/H2</f>
-        <v>8811.4860000000008</v>
-      </c>
-      <c r="I13">
-        <v>66.09</v>
-      </c>
-      <c r="J13">
-        <v>0.2</v>
-      </c>
-      <c r="K13">
-        <v>57.6</v>
-      </c>
-      <c r="L13">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H14">
-        <f>(K2*H2*J2*L2)/H2</f>
-        <v>8811.4860000000008</v>
-      </c>
-      <c r="I14">
-        <v>66.09</v>
-      </c>
-      <c r="J14">
-        <v>0.21</v>
-      </c>
-      <c r="K14">
-        <v>57.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>0.04</v>
-      </c>
-      <c r="D15">
-        <v>-8.48</v>
-      </c>
-      <c r="H15">
-        <f>(K2*H2*J2*L2)/H2</f>
-        <v>8811.4860000000008</v>
-      </c>
-      <c r="I15">
-        <v>66.09</v>
-      </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-      <c r="K15">
-        <v>57.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <v>0.11</v>
-      </c>
-      <c r="H17">
-        <f>(K2*H2*J3*L2)/H2</f>
-        <v>10769.594000000001</v>
-      </c>
-      <c r="I17">
-        <v>80.78</v>
-      </c>
-      <c r="K17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="H18">
-        <f>(K2*H2*J3*L2)/H2</f>
-        <v>10769.594000000001</v>
-      </c>
-      <c r="I18">
-        <v>80.78</v>
-      </c>
-      <c r="K18">
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="H19">
-        <f>(K2*H2*J3*L2)/H2</f>
-        <v>10769.594000000001</v>
-      </c>
-      <c r="I19">
-        <v>80.78</v>
-      </c>
-      <c r="K19">
-        <v>53.3</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H21">
-        <f>(K2*H2*G21*L2)/H2</f>
-        <v>5776.4186</v>
-      </c>
-      <c r="I21">
-        <v>43.33</v>
-      </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <v>7.3499999999999996E-2</v>
-      </c>
-      <c r="H23">
-        <f>(K2*H2*G23*L2)/H2</f>
-        <v>7196.0469000000003</v>
-      </c>
-      <c r="I23">
-        <v>53.97</v>
-      </c>
-      <c r="K23">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G25">
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="H25">
-        <f>(K2*H2*G25*L2)/H2</f>
-        <v>11405.9791</v>
-      </c>
-      <c r="I25">
-        <v>85.55</v>
-      </c>
-      <c r="K25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G27">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H27">
-        <f>(K2*H2*G27*L2)/H2</f>
-        <v>14000.4722</v>
-      </c>
-      <c r="I27">
-        <v>105.01</v>
-      </c>
-      <c r="K27">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G29">
-        <v>0.155</v>
-      </c>
-      <c r="H29">
-        <f>(K2*H2*G29*L2)/H2</f>
-        <v>15175.337000000001</v>
-      </c>
-      <c r="I29">
-        <v>113.82</v>
-      </c>
-      <c r="K29">
-        <v>92.5</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10178,73 +10805,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B1" s="6" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>40</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="7">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <f>(4.74/2)</f>
         <v>2.37</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="3">
         <f>20*LOG(D4)</f>
         <v>7.4949669202020779</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7">
+      <c r="F4" s="3">
+        <f>D4/C4</f>
+        <v>395</v>
+      </c>
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="3">
+        <f>-360*B4*G4*10^-3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -10257,34 +10891,48 @@
         <f>(5.55/2)</f>
         <v>2.7749999999999999</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="4">
         <f t="shared" ref="E5:E11" si="0">20*LOG(D5)</f>
         <v>8.8652597491738998</v>
       </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F11" si="1">D5/C5</f>
+        <v>396.42857142857139</v>
+      </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H11" si="2">-360*B5*G5*10^-3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
+      <c r="B6" s="3">
         <v>10</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <f>(4.75/2)</f>
         <v>2.375</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>7.5132722792177074</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7">
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>395.83333333333331</v>
+      </c>
+      <c r="G6" s="3">
         <v>4</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="H6" s="3">
+        <f t="shared" si="2"/>
+        <v>-14.4</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -10297,34 +10945,48 @@
         <f>(5.55/2)</f>
         <v>2.7749999999999999</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>8.8652597491738998</v>
       </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>396.42857142857139</v>
+      </c>
       <c r="G7">
         <v>4</v>
       </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>-14.4</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="3">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <f>(4.75/2)</f>
         <v>2.375</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>7.5132722792177074</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7">
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>395.83333333333331</v>
+      </c>
+      <c r="G8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -10337,34 +10999,48 @@
         <f>(5.4/2)</f>
         <v>2.7</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>8.6272752831797472</v>
       </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>385.71428571428572</v>
+      </c>
       <c r="G9">
         <v>5</v>
       </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>-36</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="3">
         <v>25</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <f>4.6/2</f>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>7.2345567203518568</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>383.33333333333331</v>
+      </c>
+      <c r="G10" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>-41.4</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -10377,36 +11053,44 @@
         <f>5.4/2</f>
         <v>2.7</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>8.6272752831797472</v>
       </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>385.71428571428572</v>
+      </c>
       <c r="G11">
         <v>4.5999999999999996</v>
       </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>-41.4</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="3">
         <v>35</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>2.16</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <f>20*LOG10(D12)</f>
         <v>6.689075023018618</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <f>D12/C12</f>
         <v>360</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>4.8</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <f>-360*B12*G12*10^-3</f>
         <v>-60.480000000000004</v>
       </c>
@@ -10422,44 +11106,44 @@
         <v>2.6</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E13:E33" si="1">20*LOG10(D13)</f>
+        <f t="shared" ref="E13:E33" si="3">20*LOG10(D13)</f>
         <v>8.2994669594163604</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="F13:F23" si="2">D13/C13</f>
+        <f t="shared" ref="F13:F35" si="4">D13/C13</f>
         <v>371.42857142857144</v>
       </c>
       <c r="G13">
         <v>4.8</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" ref="H13:H33" si="3">-360*B13*G13*10^-3</f>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:H33" si="5">-360*B13*G13*10^-3</f>
         <v>-60.480000000000004</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="3">
         <v>40</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E14" s="7">
-        <f t="shared" si="1"/>
+      <c r="E14" s="3">
+        <f t="shared" si="3"/>
         <v>6.1499207582642583</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="2"/>
+      <c r="F14" s="3">
+        <f t="shared" si="4"/>
         <v>338.33333333333331</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>4.5</v>
       </c>
-      <c r="H14" s="7">
-        <f t="shared" si="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="5"/>
         <v>-64.8</v>
       </c>
     </row>
@@ -10474,44 +11158,44 @@
         <v>2.37</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4949669202020779</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>338.57142857142856</v>
       </c>
       <c r="G15">
         <v>4.5</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" si="3"/>
+      <c r="H15" s="4">
+        <f t="shared" si="5"/>
         <v>-64.8</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="3">
         <v>45</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <v>1.9</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="1"/>
+      <c r="E16" s="3">
+        <f t="shared" si="3"/>
         <v>5.5750720190565781</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="2"/>
+      <c r="F16" s="3">
+        <f t="shared" si="4"/>
         <v>316.66666666666663</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="3">
         <v>4.7</v>
       </c>
-      <c r="H16" s="7">
-        <f t="shared" si="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="5"/>
         <v>-76.14</v>
       </c>
     </row>
@@ -10526,44 +11210,44 @@
         <v>2.21</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.8878454737022139</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>315.71428571428572</v>
       </c>
       <c r="G17">
         <v>4.7</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" si="3"/>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
         <v>-76.14</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="3">
         <v>50</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>1.73</v>
       </c>
-      <c r="E18" s="7">
-        <f t="shared" si="1"/>
+      <c r="E18" s="3">
+        <f t="shared" si="3"/>
         <v>4.7609220625759079</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="2"/>
+      <c r="F18" s="3">
+        <f t="shared" si="4"/>
         <v>288.33333333333331</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="5"/>
         <v>-79.2</v>
       </c>
     </row>
@@ -10578,44 +11262,44 @@
         <v>2.02</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.107027388932476</v>
       </c>
       <c r="F19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>288.57142857142856</v>
       </c>
       <c r="G19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" si="3"/>
+      <c r="H19" s="4">
+        <f t="shared" si="5"/>
         <v>-79.2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="3">
         <v>55</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>1.55</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" si="1"/>
+      <c r="E20" s="3">
+        <f t="shared" si="3"/>
         <v>3.8066339634058299</v>
       </c>
-      <c r="F20" s="7">
-        <f t="shared" si="2"/>
+      <c r="F20" s="3">
+        <f t="shared" si="4"/>
         <v>258.33333333333331</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>4.7</v>
       </c>
-      <c r="H20" s="7">
-        <f t="shared" si="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
         <v>-93.06</v>
       </c>
     </row>
@@ -10630,44 +11314,44 @@
         <v>1.82</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2014277597014953</v>
       </c>
       <c r="F21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>260</v>
       </c>
       <c r="G21">
         <v>4.7</v>
       </c>
-      <c r="H21" s="8">
-        <f t="shared" si="3"/>
+      <c r="H21" s="4">
+        <f t="shared" si="5"/>
         <v>-93.06</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="3">
         <v>60</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="3">
         <v>1.41</v>
       </c>
-      <c r="E22" s="7">
-        <f t="shared" si="1"/>
+      <c r="E22" s="3">
+        <f t="shared" si="3"/>
         <v>2.9843822531075976</v>
       </c>
-      <c r="F22" s="7">
-        <f t="shared" si="2"/>
+      <c r="F22" s="3">
+        <f t="shared" si="4"/>
         <v>234.99999999999997</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H22" s="7">
-        <f t="shared" si="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="5"/>
         <v>-95.04000000000002</v>
       </c>
     </row>
@@ -10682,42 +11366,45 @@
         <v>1.64</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.2968769609539574</v>
       </c>
       <c r="F23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>234.28571428571428</v>
       </c>
       <c r="G23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" si="3"/>
+      <c r="H23" s="4">
+        <f t="shared" si="5"/>
         <v>-95.04000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>70</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="3">
         <f>2.25/2</f>
         <v>1.125</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" si="1"/>
+      <c r="E24" s="3">
+        <f t="shared" si="3"/>
         <v>1.0230504489476258</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7">
+      <c r="F24" s="3">
+        <f t="shared" si="4"/>
+        <v>187.5</v>
+      </c>
+      <c r="G24" s="3">
         <v>4.5</v>
       </c>
-      <c r="H24" s="7">
-        <f t="shared" si="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
         <v>-113.4</v>
       </c>
     </row>
@@ -10733,38 +11420,45 @@
         <v>1.3</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2788670461367357</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>185.71428571428572</v>
       </c>
       <c r="G25">
         <v>4.5</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="3"/>
+      <c r="H25" s="4">
+        <f t="shared" si="5"/>
         <v>-113.4</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
+      <c r="B26" s="5">
         <v>90</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="5">
         <f>1.45/2</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="E26" s="7">
-        <f t="shared" si="1"/>
+      <c r="E26" s="3">
+        <f t="shared" si="3"/>
         <v>-2.7932398685801263</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
+      <c r="F26" s="3">
+        <f t="shared" si="4"/>
+        <v>120.83333333333333</v>
+      </c>
+      <c r="G26" s="5">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H26" s="9">
-        <f t="shared" si="3"/>
+      <c r="H26" s="5">
+        <f t="shared" si="5"/>
         <v>-134.46</v>
       </c>
     </row>
@@ -10780,38 +11474,45 @@
         <v>0.85</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.4116214857141456</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>121.42857142857142</v>
       </c>
       <c r="G27">
         <v>4.1500000000000004</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" si="3"/>
+      <c r="H27" s="4">
+        <f t="shared" si="5"/>
         <v>-134.46</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>100</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="3">
         <f>1.25/2</f>
         <v>0.625</v>
       </c>
-      <c r="E28" s="7">
-        <f t="shared" si="1"/>
+      <c r="E28" s="3">
+        <f t="shared" si="3"/>
         <v>-4.0823996531184958</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7">
+      <c r="F28" s="3">
+        <f t="shared" si="4"/>
+        <v>104.16666666666667</v>
+      </c>
+      <c r="G28" s="3">
         <v>3.8</v>
       </c>
-      <c r="H28" s="7">
-        <f t="shared" si="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
         <v>-136.80000000000001</v>
       </c>
     </row>
@@ -10827,38 +11528,45 @@
         <v>0.7</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-3.0980391997148637</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
       </c>
       <c r="G29">
         <v>3.8</v>
       </c>
-      <c r="H29" s="8">
-        <f t="shared" si="3"/>
+      <c r="H29" s="4">
+        <f t="shared" si="5"/>
         <v>-136.80000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>200</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="3">
         <f>(3.25/2)*10^-3</f>
         <v>1.6250000000000001E-3</v>
       </c>
-      <c r="E30" s="7">
-        <f t="shared" si="1"/>
+      <c r="E30" s="3">
+        <f t="shared" si="3"/>
         <v>-55.782932693702136</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7">
+      <c r="F30" s="3">
+        <f t="shared" si="4"/>
+        <v>0.27083333333333337</v>
+      </c>
+      <c r="G30" s="3">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H30" s="7">
-        <f t="shared" si="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="5"/>
         <v>-156.96</v>
       </c>
     </row>
@@ -10874,38 +11582,45 @@
         <v>1.825E-3</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-54.774742624150136</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>0.26071428571428573</v>
       </c>
       <c r="G31">
         <v>2.1800000000000002</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" si="3"/>
+      <c r="H31" s="4">
+        <f t="shared" si="5"/>
         <v>-156.96</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="3">
         <v>500</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="3">
         <f>(50/2)*10^-3</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" si="1"/>
+      <c r="E32" s="3">
+        <f t="shared" si="3"/>
         <v>-32.041199826559243</v>
       </c>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7">
+      <c r="F32" s="3">
+        <f t="shared" si="4"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G32" s="3">
         <v>1.01</v>
       </c>
-      <c r="H32" s="7">
-        <f t="shared" si="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="5"/>
         <v>-181.8</v>
       </c>
     </row>
@@ -10921,37 +11636,44 @@
         <v>0.03</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-30.457574905606752</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>4.2857142857142856</v>
       </c>
       <c r="G33">
         <v>1.01</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" si="3"/>
+      <c r="H33" s="4">
+        <f t="shared" si="5"/>
         <v>-181.8</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="3">
         <v>1000</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="3">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="3">
         <f>(20/2)*10^-3</f>
         <v>0.01</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="3">
         <f>20*LOG10(D34)</f>
         <v>-40</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7">
+      <c r="F34" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="3">
         <f>-180</f>
         <v>-180</v>
       </c>
@@ -10971,6 +11693,10 @@
         <f>20*LOG10(D35)</f>
         <v>-37.077439286435244</v>
       </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -10979,11 +11705,11 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10992,12 +11718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G29"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C5"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11011,564 +11737,570 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>34</v>
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <f>3*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <f>1.25*10^-3</f>
         <v>1.25E-3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <f>980*10^-3</f>
         <v>0.98</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <f>D6/C6</f>
         <v>784</v>
       </c>
-      <c r="F6">
-        <f>C6+0.0012</f>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F13" si="0">C6+0.0012</f>
         <v>2.4499999999999999E-3</v>
       </c>
-      <c r="G6">
-        <f>D6/F6</f>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G13" si="1">D6/F6</f>
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <f>4*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <f>1.95*10^-3</f>
         <v>1.9499999999999999E-3</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>1.3</v>
       </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E13" si="0">D7/C7</f>
+      <c r="E7" s="8">
+        <f t="shared" ref="E7:E13" si="2">D7/C7</f>
         <v>666.66666666666674</v>
       </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F13" si="1">C7+0.0012</f>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
         <v>3.15E-3</v>
       </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G13" si="2">D7/F7</f>
+      <c r="G7" s="8">
+        <f t="shared" si="1"/>
         <v>412.69841269841271</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <f>5*10^-3</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <f>3.25*10^-3</f>
         <v>3.2500000000000003E-3</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>1.88</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
+        <f t="shared" si="2"/>
+        <v>578.46153846153834</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>578.46153846153834</v>
-      </c>
-      <c r="F8">
+        <v>4.45E-3</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="1"/>
-        <v>4.45E-3</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
         <v>422.47191011235952</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <f>6*10^-3</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <f>3.95*10^-3</f>
         <v>3.9500000000000004E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>2.14</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="8">
+        <f t="shared" si="2"/>
+        <v>541.77215189873414</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>541.77215189873414</v>
-      </c>
-      <c r="F9">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="1"/>
-        <v>5.1500000000000001E-3</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
         <v>415.53398058252429</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <f>5.55*10^-3</f>
         <v>5.5500000000000002E-3</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>2.66</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="8">
+        <f t="shared" si="2"/>
+        <v>479.27927927927931</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>479.27927927927931</v>
-      </c>
-      <c r="F10">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="1"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
         <v>394.07407407407408</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <f>6.2*10^-3</f>
         <v>6.2000000000000006E-3</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>2.94</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="8">
+        <f t="shared" si="2"/>
+        <v>474.19354838709671</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>474.19354838709671</v>
-      </c>
-      <c r="F11">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="1"/>
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
         <v>397.29729729729729</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <f>7.6*10^-3</f>
         <v>7.6E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>3.46</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
+        <f t="shared" si="2"/>
+        <v>455.26315789473682</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
-        <v>455.26315789473682</v>
-      </c>
-      <c r="F12">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="1"/>
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
         <v>393.18181818181813</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="10">
         <v>0.01</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <f>8.25*10^-3</f>
         <v>8.2500000000000004E-3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="10">
         <v>3.76</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="10">
+        <f t="shared" si="2"/>
+        <v>455.75757575757569</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
-        <v>455.75757575757569</v>
-      </c>
-      <c r="F13">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
-        <v>9.4500000000000001E-3</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
         <v>397.88359788359787</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
+    <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D35" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E35" s="12" t="s">
         <v>0</v>
       </c>
+      <c r="F35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
         <v>1</v>
       </c>
-      <c r="B20">
+      <c r="B36" s="8">
         <f>1*10^-3</f>
         <v>1E-3</v>
       </c>
-      <c r="C20">
+      <c r="C36" s="8">
         <f>(2.2*10^-3)/2</f>
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="D20">
+      <c r="D36" s="8">
         <f>(770*10^-3)/2</f>
         <v>0.38500000000000001</v>
       </c>
-      <c r="E20">
-        <f>D20/C20</f>
+      <c r="E36" s="8">
+        <f>D36/C36</f>
         <v>350</v>
       </c>
-      <c r="F20">
-        <f>C20-0.1375*10^-3</f>
+      <c r="F36" s="8">
+        <f>C36-0.1375*10^-3</f>
         <v>9.6250000000000003E-4</v>
       </c>
-      <c r="G20">
-        <f>D20/F20</f>
+      <c r="G36" s="8">
+        <f>D36/F36</f>
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B37" s="8">
         <f>2*10^-3</f>
         <v>2E-3</v>
       </c>
-      <c r="C21">
+      <c r="C37" s="8">
         <f>(4*10^-3)/2</f>
         <v>2E-3</v>
       </c>
-      <c r="D21">
+      <c r="D37" s="8">
         <f>1.54/2</f>
         <v>0.77</v>
       </c>
-      <c r="E21">
-        <f t="shared" ref="E21:E26" si="3">D21/C21</f>
+      <c r="E37" s="8">
+        <f t="shared" ref="E37:E42" si="3">D37/C37</f>
         <v>385</v>
       </c>
-      <c r="F21">
-        <f t="shared" ref="F21:F29" si="4">C21-0.1375*10^-3</f>
+      <c r="F37" s="8">
+        <f t="shared" ref="F37:F45" si="4">C37-0.1375*10^-3</f>
         <v>1.8625E-3</v>
       </c>
-      <c r="G21">
-        <f t="shared" ref="G21:G29" si="5">D21/F21</f>
+      <c r="G37" s="8">
+        <f t="shared" ref="G37:G45" si="5">D37/F37</f>
         <v>413.42281879194633</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B38" s="8">
         <f>3*10^-3</f>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C22">
+      <c r="C38" s="8">
         <f>(6.1*10^-3)/2</f>
         <v>3.0499999999999998E-3</v>
       </c>
-      <c r="D22">
+      <c r="D38" s="8">
         <f>2.32/2</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="E22">
+      <c r="E38" s="8">
         <f t="shared" si="3"/>
         <v>380.32786885245901</v>
       </c>
-      <c r="F22">
+      <c r="F38" s="8">
         <f t="shared" si="4"/>
         <v>2.9124999999999997E-3</v>
       </c>
-      <c r="G22">
+      <c r="G38" s="8">
         <f t="shared" si="5"/>
         <v>398.28326180257511</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B39" s="8">
         <f>4*10^-3</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C23">
+      <c r="C39" s="8">
         <f>(7.85*10^-3)/2</f>
         <v>3.9249999999999997E-3</v>
       </c>
-      <c r="D23">
+      <c r="D39" s="8">
         <f>3.09/2</f>
         <v>1.5449999999999999</v>
       </c>
-      <c r="E23">
+      <c r="E39" s="8">
         <f t="shared" si="3"/>
         <v>393.63057324840764</v>
       </c>
-      <c r="F23">
+      <c r="F39" s="8">
         <f t="shared" si="4"/>
         <v>3.7874999999999996E-3</v>
       </c>
-      <c r="G23">
+      <c r="G39" s="8">
         <f t="shared" si="5"/>
         <v>407.92079207920796</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="B40" s="8">
         <f>5*10^-3</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C24">
+      <c r="C40" s="8">
         <f>(10.2*10^-3)/2</f>
         <v>5.0999999999999995E-3</v>
       </c>
-      <c r="D24">
+      <c r="D40" s="8">
         <f>3.97/2</f>
         <v>1.9850000000000001</v>
       </c>
-      <c r="E24">
+      <c r="E40" s="8">
         <f t="shared" si="3"/>
         <v>389.21568627450984</v>
       </c>
-      <c r="F24">
+      <c r="F40" s="8">
         <f t="shared" si="4"/>
         <v>4.9624999999999999E-3</v>
       </c>
-      <c r="G24">
+      <c r="G40" s="8">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B41" s="8">
         <f>6*10^-3</f>
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C25">
+      <c r="C41" s="8">
         <f>(12.2*10^-3)/2</f>
         <v>6.0999999999999995E-3</v>
       </c>
-      <c r="D25">
+      <c r="D41" s="8">
         <f>4.74/2</f>
         <v>2.37</v>
       </c>
-      <c r="E25">
+      <c r="E41" s="8">
         <f t="shared" si="3"/>
         <v>388.52459016393448</v>
       </c>
-      <c r="F25">
+      <c r="F41" s="8">
         <f t="shared" si="4"/>
         <v>5.9624999999999999E-3</v>
       </c>
-      <c r="G25">
+      <c r="G41" s="8">
         <f t="shared" si="5"/>
         <v>397.48427672955978</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B42" s="8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C26">
+      <c r="C42" s="8">
         <f>(13.8*10^-3)/2</f>
         <v>6.9000000000000008E-3</v>
       </c>
-      <c r="D26">
+      <c r="D42" s="8">
         <f>5.58/2</f>
         <v>2.79</v>
       </c>
-      <c r="E26">
+      <c r="E42" s="8">
         <f t="shared" si="3"/>
         <v>404.3478260869565</v>
       </c>
-      <c r="F26">
+      <c r="F42" s="8">
         <f t="shared" si="4"/>
         <v>6.7625000000000011E-3</v>
       </c>
-      <c r="G26">
+      <c r="G42" s="8">
         <f t="shared" si="5"/>
         <v>412.56931608133078</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>8</v>
       </c>
-      <c r="B27">
+      <c r="B43" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C27">
+      <c r="C43" s="8">
         <f>(15.9*10^-3)/2</f>
         <v>7.9500000000000005E-3</v>
       </c>
-      <c r="D27">
+      <c r="D43" s="8">
         <f>6.44/2</f>
         <v>3.22</v>
       </c>
-      <c r="E27">
-        <f>D27/C27</f>
+      <c r="E43" s="8">
+        <f>D43/C43</f>
         <v>405.03144654088049</v>
       </c>
-      <c r="F27">
+      <c r="F43" s="8">
         <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="G27">
+      <c r="G43" s="8">
         <f t="shared" si="5"/>
         <v>412.16</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="B44" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="C28">
+      <c r="C44" s="8">
         <f>(17.6*10^-3)/2</f>
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="D28">
+      <c r="D44" s="8">
         <f>7.18/2</f>
         <v>3.59</v>
       </c>
-      <c r="E28">
-        <f t="shared" ref="E28:E29" si="6">D28/C28</f>
+      <c r="E44" s="8">
+        <f t="shared" ref="E44:E45" si="6">D44/C44</f>
         <v>407.95454545454544</v>
       </c>
-      <c r="F28">
+      <c r="F44" s="8">
         <f t="shared" si="4"/>
         <v>8.6625000000000001E-3</v>
       </c>
-      <c r="G28">
+      <c r="G44" s="8">
         <f t="shared" si="5"/>
         <v>414.43001443001441</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B45" s="10">
         <v>0.01</v>
       </c>
-      <c r="C29">
+      <c r="C45" s="10">
         <f>(19.5*10^-3)/2</f>
         <v>9.75E-3</v>
       </c>
-      <c r="D29">
+      <c r="D45" s="10">
         <f>7.96/2</f>
         <v>3.98</v>
       </c>
-      <c r="E29">
+      <c r="E45" s="10">
         <f t="shared" si="6"/>
         <v>408.20512820512818</v>
       </c>
-      <c r="F29">
+      <c r="F45" s="10">
         <f t="shared" si="4"/>
         <v>9.6124999999999995E-3</v>
       </c>
-      <c r="G29">
+      <c r="G45" s="10">
         <f t="shared" si="5"/>
         <v>414.0442132639792</v>
       </c>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicoline\Desktop\Semester-Projekt-3\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freja\Desktop\Semester-Projekt-3\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -555,8 +555,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463316480"/>
-        <c:axId val="463321184"/>
+        <c:axId val="187774232"/>
+        <c:axId val="187773056"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -730,7 +730,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463316480"/>
+        <c:axId val="187774232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -788,12 +788,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463321184"/>
+        <c:crossAx val="187773056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463321184"/>
+        <c:axId val="187773056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +850,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463316480"/>
+        <c:crossAx val="187774232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1140,8 +1140,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463314520"/>
-        <c:axId val="463321968"/>
+        <c:axId val="187773840"/>
+        <c:axId val="187776192"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1246,7 +1246,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463314520"/>
+        <c:axId val="187773840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1306,12 +1306,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463321968"/>
+        <c:crossAx val="187776192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463321968"/>
+        <c:axId val="187776192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1368,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463314520"/>
+        <c:crossAx val="187773840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1689,11 +1689,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463319616"/>
-        <c:axId val="463311384"/>
+        <c:axId val="187775800"/>
+        <c:axId val="187774624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463319616"/>
+        <c:axId val="187775800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1753,12 +1753,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463311384"/>
+        <c:crossAx val="187774624"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463311384"/>
+        <c:axId val="187774624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1815,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463319616"/>
+        <c:crossAx val="187775800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2155,11 +2155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463322752"/>
-        <c:axId val="463323536"/>
+        <c:axId val="222756560"/>
+        <c:axId val="222746760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463322752"/>
+        <c:axId val="222756560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,12 +2216,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463323536"/>
+        <c:crossAx val="222746760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463323536"/>
+        <c:axId val="222746760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2278,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463322752"/>
+        <c:crossAx val="222756560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2379,9 +2379,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10580314960629922"/>
-          <c:y val="0.13467592592592592"/>
-          <c:w val="0.87119685039370076"/>
+          <c:x val="9.4991908394870317E-2"/>
+          <c:y val="0.13467587023557243"/>
+          <c:w val="0.57643579526652444"/>
           <c:h val="0.6714577865266842"/>
         </c:manualLayout>
       </c:layout>
@@ -2392,7 +2392,7 @@
           <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>jk</c:v>
+            <c:v>Sammenhæng mellem mmHg og Volt</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2460,8 +2460,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.30554584523088463"/>
-                  <c:y val="5.1608659892139815E-2"/>
+                  <c:x val="-0.24310590709840027"/>
+                  <c:y val="5.2458601354012341E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2529,10 +2529,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$20:$H$20</c:f>
+              <c:f>Vandsøjle!$C$20:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -2547,19 +2547,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94500000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$19:$H$19</c:f>
+              <c:f>Vandsøjle!$C$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.33</c:v>
                 </c:pt>
@@ -2574,9 +2571,6 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,11 +2585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463317656"/>
-        <c:axId val="463312168"/>
+        <c:axId val="222754992"/>
+        <c:axId val="222747544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463317656"/>
+        <c:axId val="222754992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2652,12 +2646,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463312168"/>
+        <c:crossAx val="222747544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463312168"/>
+        <c:axId val="222747544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2714,7 +2708,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463317656"/>
+        <c:crossAx val="222754992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2728,7 +2722,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67802048060054676"/>
+          <c:y val="0.13237453149404843"/>
+          <c:w val="0.31166396946495678"/>
+          <c:h val="0.64646654753644228"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3166,11 +3169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463317264"/>
-        <c:axId val="463318048"/>
+        <c:axId val="222745584"/>
+        <c:axId val="222749896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463317264"/>
+        <c:axId val="222745584"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3284,12 +3287,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463318048"/>
+        <c:crossAx val="222749896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463318048"/>
+        <c:axId val="222749896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3408,7 +3411,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463317264"/>
+        <c:crossAx val="222745584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3761,11 +3764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463312560"/>
-        <c:axId val="463312952"/>
+        <c:axId val="222745192"/>
+        <c:axId val="222754600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463312560"/>
+        <c:axId val="222745192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,12 +3825,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463312952"/>
+        <c:crossAx val="222754600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463312952"/>
+        <c:axId val="222754600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,7 +3887,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463312560"/>
+        <c:crossAx val="222745192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4247,11 +4250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="463318440"/>
-        <c:axId val="463314912"/>
+        <c:axId val="222749112"/>
+        <c:axId val="222748328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="463318440"/>
+        <c:axId val="222749112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4308,12 +4311,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463314912"/>
+        <c:crossAx val="222748328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="463314912"/>
+        <c:axId val="222748328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4370,7 +4373,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463318440"/>
+        <c:crossAx val="222749112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9052,15 +9055,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10526,8 +10529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="4" r:id="rId1"/>
     <sheet name="Vandsøjle" sheetId="6" r:id="rId2"/>
-    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId3"/>
-    <sheet name="Forstærker" sheetId="1" r:id="rId4"/>
+    <sheet name="Hardware og software" sheetId="7" r:id="rId3"/>
+    <sheet name="Filter og forstærker sammen" sheetId="5" r:id="rId4"/>
+    <sheet name="Forstærker" sheetId="1" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -141,6 +142,21 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Måling af mmHg i programmet</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>atmosfærisk</t>
+  </si>
+  <si>
+    <t>V analog</t>
+  </si>
+  <si>
+    <t>mmHg program</t>
   </si>
 </sst>
 </file>
@@ -555,8 +571,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187774232"/>
-        <c:axId val="187773056"/>
+        <c:axId val="302515432"/>
+        <c:axId val="302518568"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -730,7 +746,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187774232"/>
+        <c:axId val="302515432"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -788,12 +804,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187773056"/>
+        <c:crossAx val="302518568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187773056"/>
+        <c:axId val="302518568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +866,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187774232"/>
+        <c:crossAx val="302515432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1140,8 +1156,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187773840"/>
-        <c:axId val="187776192"/>
+        <c:axId val="302515824"/>
+        <c:axId val="302516216"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1246,7 +1262,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187773840"/>
+        <c:axId val="302515824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1306,12 +1322,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187776192"/>
+        <c:crossAx val="302516216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187776192"/>
+        <c:axId val="302516216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1384,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187773840"/>
+        <c:crossAx val="302515824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1689,11 +1705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187775800"/>
-        <c:axId val="187774624"/>
+        <c:axId val="337202968"/>
+        <c:axId val="337205320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187775800"/>
+        <c:axId val="337202968"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1753,12 +1769,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187774624"/>
+        <c:crossAx val="337205320"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187774624"/>
+        <c:axId val="337205320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1831,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187775800"/>
+        <c:crossAx val="337202968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2155,11 +2171,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222756560"/>
-        <c:axId val="222746760"/>
+        <c:axId val="337203752"/>
+        <c:axId val="337204144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222756560"/>
+        <c:axId val="337203752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,12 +2232,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222746760"/>
+        <c:crossAx val="337204144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222746760"/>
+        <c:axId val="337204144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,7 +2294,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222756560"/>
+        <c:crossAx val="337203752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2585,11 +2601,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222754992"/>
-        <c:axId val="222747544"/>
+        <c:axId val="337206496"/>
+        <c:axId val="337208456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222754992"/>
+        <c:axId val="337206496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,12 +2662,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222747544"/>
+        <c:crossAx val="337208456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222747544"/>
+        <c:axId val="337208456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2724,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222754992"/>
+        <c:crossAx val="337206496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3169,11 +3185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222745584"/>
-        <c:axId val="222749896"/>
+        <c:axId val="337207672"/>
+        <c:axId val="337208848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222745584"/>
+        <c:axId val="337207672"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3287,12 +3303,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222749896"/>
+        <c:crossAx val="337208848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222749896"/>
+        <c:axId val="337208848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3411,7 +3427,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222745584"/>
+        <c:crossAx val="337207672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3764,11 +3780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222745192"/>
-        <c:axId val="222754600"/>
+        <c:axId val="337203360"/>
+        <c:axId val="337204928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222745192"/>
+        <c:axId val="337203360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,12 +3841,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222754600"/>
+        <c:crossAx val="337204928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222754600"/>
+        <c:axId val="337204928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +3903,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222745192"/>
+        <c:crossAx val="337203360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4250,11 +4266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222749112"/>
-        <c:axId val="222748328"/>
+        <c:axId val="337207280"/>
+        <c:axId val="337209240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222749112"/>
+        <c:axId val="337207280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,12 +4327,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222748328"/>
+        <c:crossAx val="337209240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222748328"/>
+        <c:axId val="337209240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,7 +4389,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222749112"/>
+        <c:crossAx val="337207280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9087,6 +9103,60 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Tekstfelt 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2024062"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="da-DK" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -9120,7 +9190,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10529,8 +10599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10810,6 +10880,223 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.114</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9">
+        <f>PI()*(B2/2)^2</f>
+        <v>1.0207034531513238E-2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8">
+        <v>997</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9.82</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8">
+        <f>(B4*B3*C6*B5)/B3</f>
+        <v>881.14859999999987</v>
+      </c>
+      <c r="D7" s="8">
+        <f>(B4*B3*D6*B5)/B3</f>
+        <v>1174.8647999999998</v>
+      </c>
+      <c r="E7" s="8">
+        <f>(B4*B3*E6*B5)/B3</f>
+        <v>1468.5809999999999</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
+        <v>6.61</v>
+      </c>
+      <c r="D8" s="10">
+        <v>8.81</v>
+      </c>
+      <c r="E8" s="10">
+        <v>11.02</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10">
+        <f>45*10^-3-K18</f>
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="D16" s="10">
+        <f>67.5*10^-3-K18</f>
+        <v>8.7000000000000008E-2</v>
+      </c>
+      <c r="E16" s="10">
+        <f>89*10^-3-K18</f>
+        <v>0.1085</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <f>-19.5*10^-3</f>
+        <v>-1.95E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <f>1.9+4.5</f>
+        <v>6.4</v>
+      </c>
+      <c r="D19">
+        <f>6.78+K19</f>
+        <v>8.68</v>
+      </c>
+      <c r="E19">
+        <f>9.05+K19</f>
+        <v>10.950000000000001</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>1.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
@@ -11721,7 +12008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Freja\Desktop\Semester-Projekt-3\Hardware\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicoline\Desktop\Semester-Projekt-3\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Målinger af spændings output</t>
   </si>
   <si>
-    <t>Spænding udgang af filter i mV</t>
-  </si>
-  <si>
-    <t>Amplitude i dB</t>
-  </si>
-  <si>
     <t>Modultest af forstærkeren</t>
   </si>
   <si>
@@ -134,13 +128,52 @@
     <t>Bilag XX: Modultest af analogt filter</t>
   </si>
   <si>
-    <t>Indgangssignalet, 5µV*5V*XmmHg</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>=5*10^-6*5*</t>
+    <t>Amplitude ud i dB</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>3dB frekvens ved 7mV amplitude</t>
+  </si>
+  <si>
+    <t>Teoretisk spændings output</t>
+  </si>
+  <si>
+    <t>Indgangssignal, teori [V]</t>
+  </si>
+  <si>
+    <r>
+      <t>5µV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>·5V·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p[mmHg]</t>
+    </r>
+  </si>
+  <si>
+    <t>Vandsøjlenstryk i mmHg</t>
+  </si>
+  <si>
+    <t>Gain = 400</t>
+  </si>
+  <si>
+    <t>Spænding udgang af filter [V]</t>
   </si>
 </sst>
 </file>
@@ -220,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -246,11 +279,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,6 +363,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,6 +435,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -555,8 +661,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187774232"/>
-        <c:axId val="187773056"/>
+        <c:axId val="396185904"/>
+        <c:axId val="396186688"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -730,7 +836,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187774232"/>
+        <c:axId val="396185904"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -788,12 +894,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187773056"/>
+        <c:crossAx val="396186688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187773056"/>
+        <c:axId val="396186688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,7 +956,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187774232"/>
+        <c:crossAx val="396185904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -933,17 +1039,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Amplitude</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Fasedrejning</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="da-DK" baseline="0"/>
-              <a:t> i dB (y), frekvenser i log på x akse</a:t>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> i grader</a:t>
             </a:r>
-            <a:endParaRPr lang="da-DK"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -975,15 +1082,28 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10844444913565847"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.83566673062634367"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serien</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -994,11 +1114,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1006,126 +1126,144 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Filter!$A$27:$A$44</c:f>
+              <c:f>[1]Filter!$A$3:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="10">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="11">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="18">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="19">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Filter!$C$27:$C$44</c:f>
+              <c:f>[1]Filter!$E$3:$E$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>7.9588001734407516</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8539390651933152</c:v>
+                  <c:v>-5.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4582400594021312</c:v>
+                  <c:v>-16.559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1205171438624548</c:v>
+                  <c:v>-31.680000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6082754669838177</c:v>
+                  <c:v>-47.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.1926033485179754</c:v>
+                  <c:v>-59.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8893245232318581</c:v>
+                  <c:v>-69.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1535714973836901</c:v>
+                  <c:v>-74.304000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7105689381509777</c:v>
+                  <c:v>-79.488</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1365175206369944</c:v>
+                  <c:v>-86.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4052343078991476</c:v>
+                  <c:v>-95.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4376401461225072</c:v>
+                  <c:v>-100.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.35457533920863205</c:v>
+                  <c:v>-108</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.2701854965503623</c:v>
+                  <c:v>-110.88000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-3.8764005203222562</c:v>
+                  <c:v>-126.72000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-5.1927462101151223</c:v>
+                  <c:v>-131.22</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.7448433663685181</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-10.752040042020878</c:v>
+                  <c:v>-141.768</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-156.816</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-151.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1140,113 +1278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187773840"/>
-        <c:axId val="187776192"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>[1]Filter!$A$27:$A$44</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="18"/>
-                      <c:pt idx="0">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>150</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="398886648"/>
+        <c:axId val="398881944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187773840"/>
+        <c:axId val="398886648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1269,6 +1305,197 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frekvens,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> logaritmiskskala</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398881944"/>
+        <c:crossesAt val="-200"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398881944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Faseforskydning</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i grader</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3410274688592395E-3"/>
+              <c:y val="0.27907316576861646"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1306,69 +1533,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187776192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="187776192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="187773840"/>
+        <c:crossAx val="398886648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,36 +1597,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fasedrejning</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> i grader</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1493,28 +1629,18 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.6900481189851275E-2"/>
-          <c:y val="0.17171296296296298"/>
-          <c:w val="0.85721062992125985"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Serien</c:v>
+            <c:v>Amplitude i dB</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1525,11 +1651,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1537,7 +1663,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>[1]Filter!$A$3:$A$23</c:f>
+              <c:f>Filter!$A$4:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1609,72 +1735,72 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>[1]Filter!$E$3:$E$23</c:f>
+              <c:f>Filter!$D$4:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.4</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-16.559999999999999</c:v>
+                  <c:v>7.9588001734407516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-31.680000000000003</c:v>
+                  <c:v>7.8539390651933152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-47.52000000000001</c:v>
+                  <c:v>7.4582400594021312</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-59.22</c:v>
+                  <c:v>7.1205171438624548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-69.12</c:v>
+                  <c:v>6.6082754669838177</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-74.304000000000002</c:v>
+                  <c:v>6.1926033485179754</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-79.488</c:v>
+                  <c:v>5.8893245232318581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-86.4</c:v>
+                  <c:v>5.1535714973836901</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-95.4</c:v>
+                  <c:v>4.7105689381509777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-100.8</c:v>
+                  <c:v>4.1365175206369944</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-108</c:v>
+                  <c:v>3.4052343078991476</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-110.88000000000002</c:v>
+                  <c:v>1.4376401461225072</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-126.72000000000001</c:v>
+                  <c:v>-0.35457533920863205</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-131.22</c:v>
+                  <c:v>-2.2701854965503623</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-135</c:v>
+                  <c:v>-3.8764005203222562</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-141.768</c:v>
+                  <c:v>-5.1927462101151223</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-156.816</c:v>
+                  <c:v>-6.7448433663685181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-151.20000000000002</c:v>
+                  <c:v>-10.752040042020878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-180</c:v>
+                  <c:v>-31.213346123394746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1689,16 +1815,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="187775800"/>
-        <c:axId val="187774624"/>
+        <c:axId val="492358592"/>
+        <c:axId val="402342304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="187775800"/>
+        <c:axId val="492358592"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
-          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1734,7 +1858,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1753,12 +1877,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187774624"/>
-        <c:crossesAt val="-200"/>
+        <c:crossAx val="402342304"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="187774624"/>
+        <c:axId val="402342304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1815,7 +1939,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="187775800"/>
+        <c:crossAx val="492358592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1827,6 +1951,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2010,8 +2166,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.847769028871391E-2"/>
-                  <c:y val="0.41162037037037036"/>
+                  <c:x val="-0.40040070842850461"/>
+                  <c:y val="1.1723695420261623E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2033,17 +2189,33 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>y = 1,0261x - 24,331</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
                       <a:t>R² = 0,9999</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400"/>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2093,10 +2265,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$19:$H$19</c:f>
+              <c:f>Vandsøjle!$D$17:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.33</c:v>
                 </c:pt>
@@ -2111,19 +2283,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$20:$H$20</c:f>
+              <c:f>Vandsøjle!$D$22:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.02</c:v>
                 </c:pt>
@@ -2139,8 +2308,196 @@
                 <c:pt idx="4">
                   <c:v>9.2499999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.94500000000000006</c:v>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Teori</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.5128490987725447"/>
+                  <c:y val="-2.9312656727476575E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,01x</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 1</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vandsøjle!$D$17:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vandsøjle!$D$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.3299999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5599999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11379999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2155,11 +2512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222756560"/>
-        <c:axId val="222746760"/>
+        <c:axId val="398889392"/>
+        <c:axId val="398888608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222756560"/>
+        <c:axId val="398889392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2179,6 +2536,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Tryk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i mmHg</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2216,12 +2634,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222746760"/>
+        <c:crossAx val="398888608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222746760"/>
+        <c:axId val="398888608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,6 +2659,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Spænding</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i V</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2278,7 +2757,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222756560"/>
+        <c:crossAx val="398889392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2290,6 +2769,58 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2342,6 +2873,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Integrationstest af forstærker og filter sammen </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2374,25 +2930,15 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.4991908394870317E-2"/>
-          <c:y val="0.13467587023557243"/>
-          <c:w val="0.57643579526652444"/>
-          <c:h val="0.6714577865266842"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sammenhæng mellem mmHg og Volt</c:v>
+            <c:v>7mV amplitude</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2406,171 +2952,270 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.24310590709840027"/>
-                  <c:y val="5.2458601354012341E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1">
-                            <a:lumMod val="65000"/>
-                            <a:lumOff val="35000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>y = 103,66x + 2,0173</a:t>
-                    </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" baseline="0"/>
-                      <a:t>R² = 1</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1200"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="da-DK"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$20:$G$20</c:f>
+              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15,'Filter og forstærker sammen'!$B$17,'Filter og forstærker sammen'!$B$19,'Filter og forstærker sammen'!$B$21,'Filter og forstærker sammen'!$B$23,'Filter og forstærker sammen'!$B$25,'Filter og forstærker sammen'!$B$27,'Filter og forstærker sammen'!$B$29,'Filter og forstærker sammen'!$B$31,'Filter og forstærker sammen'!$B$33,'Filter og forstærker sammen'!$B$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.02</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.4000000000000001E-2</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3000000000000004E-2</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.2499999999999999E-2</c:v>
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vandsøjle!$C$19:$G$19</c:f>
+              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15,'Filter og forstærker sammen'!$E$17,'Filter og forstærker sammen'!$E$19,'Filter og forstærker sammen'!$E$21,'Filter og forstærker sammen'!$E$23,'Filter og forstærker sammen'!$E$25,'Filter og forstærker sammen'!$E$27,'Filter og forstærker sammen'!$E$29,'Filter og forstærker sammen'!$E$31,'Filter og forstærker sammen'!$E$33,'Filter og forstærker sammen'!$E$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.33</c:v>
+                  <c:v>8.8652597491738998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4</c:v>
+                  <c:v>8.8652597491738998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.56</c:v>
+                  <c:v>8.6272752831797472</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.5</c:v>
+                  <c:v>8.6272752831797472</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.38</c:v>
+                  <c:v>8.2994669594163604</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8878454737022139</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.107027388932476</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2014277597014953</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2968769609539574</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2788670461367357</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.4116214857141456</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.0980391997148637</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-54.774742624150136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-30.457574905606752</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-37.077439286435244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>6mV amplitude</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$30,'Filter og forstærker sammen'!$B$32,'Filter og forstærker sammen'!$B$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14,'Filter og forstærker sammen'!$E$16,'Filter og forstærker sammen'!$E$18,'Filter og forstærker sammen'!$E$20,'Filter og forstærker sammen'!$E$22,'Filter og forstærker sammen'!$E$24,'Filter og forstærker sammen'!$E$26,'Filter og forstærker sammen'!$E$28,'Filter og forstærker sammen'!$E$30,'Filter og forstærker sammen'!$E$32,'Filter og forstærker sammen'!$E$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.4949669202020779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5132722792177074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5132722792177074</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2345567203518568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.689075023018618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1499207582642583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5750720190565781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7609220625759079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8066339634058299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9843822531075976</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0230504489476258</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.7932398685801263</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.0823996531184958</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-55.782932693702136</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-32.041199826559243</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2585,13 +3230,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222754992"/>
-        <c:axId val="222747544"/>
+        <c:axId val="398889000"/>
+        <c:axId val="398885864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222754992"/>
+        <c:axId val="398889000"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2609,6 +3256,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frekvens i Hz, logaritmisk skala</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2646,14 +3349,16 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222747544"/>
+        <c:crossAx val="398885864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222747544"/>
+        <c:axId val="398885864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="-40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2671,6 +3376,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Amplitude i</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> dB</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2708,7 +3474,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222754992"/>
+        <c:crossAx val="398889000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2721,17 +3487,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.67802048060054676"/>
-          <c:y val="0.13237453149404843"/>
-          <c:w val="0.31166396946495678"/>
-          <c:h val="0.64646654753644228"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2813,31 +3570,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="da-DK"/>
-              <a:t>Integrationstest af forstærker og filter sammen </a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2869,7 +3602,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8558166610496652E-2"/>
+          <c:y val="0.16391524333469781"/>
+          <c:w val="0.86665584117160455"/>
+          <c:h val="0.81494952298394174"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2877,7 +3620,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>7mV amplitude</c:v>
+            <c:v>Fasedrej</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -2903,10 +3646,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$5,'Filter og forstærker sammen'!$B$7,'Filter og forstærker sammen'!$B$9,'Filter og forstærker sammen'!$B$11,'Filter og forstærker sammen'!$B$13,'Filter og forstærker sammen'!$B$15,'Filter og forstærker sammen'!$B$17,'Filter og forstærker sammen'!$B$19,'Filter og forstærker sammen'!$B$21,'Filter og forstærker sammen'!$B$23,'Filter og forstærker sammen'!$B$25,'Filter og forstærker sammen'!$B$27,'Filter og forstærker sammen'!$B$29,'Filter og forstærker sammen'!$B$31,'Filter og forstærker sammen'!$B$33,'Filter og forstærker sammen'!$B$35)</c:f>
+              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$30,'Filter og forstærker sammen'!$B$32:$B$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2953,6 +3696,9 @@
                   <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2960,201 +3706,57 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$5,'Filter og forstærker sammen'!$E$7,'Filter og forstærker sammen'!$E$9,'Filter og forstærker sammen'!$E$11,'Filter og forstærker sammen'!$E$13,'Filter og forstærker sammen'!$E$15,'Filter og forstærker sammen'!$E$17,'Filter og forstærker sammen'!$E$19,'Filter og forstærker sammen'!$E$21,'Filter og forstærker sammen'!$E$23,'Filter og forstærker sammen'!$E$25,'Filter og forstærker sammen'!$E$27,'Filter og forstærker sammen'!$E$29,'Filter og forstærker sammen'!$E$31,'Filter og forstærker sammen'!$E$33,'Filter og forstærker sammen'!$E$35)</c:f>
+              <c:f>('Filter og forstærker sammen'!$H$4,'Filter og forstærker sammen'!$H$7,'Filter og forstærker sammen'!$H$9,'Filter og forstærker sammen'!$H$11,'Filter og forstærker sammen'!$H$13,'Filter og forstærker sammen'!$H$15,'Filter og forstærker sammen'!$H$17,'Filter og forstærker sammen'!$H$19,'Filter og forstærker sammen'!$H$21,'Filter og forstærker sammen'!$H$23,'Filter og forstærker sammen'!$H$25,'Filter og forstærker sammen'!$H$27,'Filter og forstærker sammen'!$H$29,'Filter og forstærker sammen'!$H$31,'Filter og forstærker sammen'!$H$33,'Filter og forstærker sammen'!$H$35)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>8.8652597491738998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8652597491738998</c:v>
+                  <c:v>-14.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.6272752831797472</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6272752831797472</c:v>
+                  <c:v>-41.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.2994669594163604</c:v>
+                  <c:v>-60.480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4949669202020779</c:v>
+                  <c:v>-64.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.8878454737022139</c:v>
+                  <c:v>-76.14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.107027388932476</c:v>
+                  <c:v>-79.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2014277597014953</c:v>
+                  <c:v>-93.06</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2968769609539574</c:v>
+                  <c:v>-95.04000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2788670461367357</c:v>
+                  <c:v>-113.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.4116214857141456</c:v>
+                  <c:v>-134.46</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.0980391997148637</c:v>
+                  <c:v>-136.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-54.774742624150136</c:v>
+                  <c:v>-156.96</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-30.457574905606752</c:v>
+                  <c:v>-181.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-37.077439286435244</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>6mV amplitude</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$B$4,'Filter og forstærker sammen'!$B$6,'Filter og forstærker sammen'!$B$8,'Filter og forstærker sammen'!$B$10,'Filter og forstærker sammen'!$B$12,'Filter og forstærker sammen'!$B$14,'Filter og forstærker sammen'!$B$16,'Filter og forstærker sammen'!$B$18,'Filter og forstærker sammen'!$B$20,'Filter og forstærker sammen'!$B$22,'Filter og forstærker sammen'!$B$24,'Filter og forstærker sammen'!$B$26,'Filter og forstærker sammen'!$B$28,'Filter og forstærker sammen'!$B$30,'Filter og forstærker sammen'!$B$32,'Filter og forstærker sammen'!$B$34)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Filter og forstærker sammen'!$E$4,'Filter og forstærker sammen'!$E$6,'Filter og forstærker sammen'!$E$8,'Filter og forstærker sammen'!$E$10,'Filter og forstærker sammen'!$E$12,'Filter og forstærker sammen'!$E$14,'Filter og forstærker sammen'!$E$16,'Filter og forstærker sammen'!$E$18,'Filter og forstærker sammen'!$E$20,'Filter og forstærker sammen'!$E$22,'Filter og forstærker sammen'!$E$24,'Filter og forstærker sammen'!$E$26,'Filter og forstærker sammen'!$E$28,'Filter og forstærker sammen'!$E$30,'Filter og forstærker sammen'!$E$32,'Filter og forstærker sammen'!$E$34)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7.4949669202020779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5132722792177074</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.5132722792177074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.2345567203518568</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.689075023018618</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1499207582642583</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5750720190565781</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.7609220625759079</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8066339634058299</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9843822531075976</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0230504489476258</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.7932398685801263</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-4.0823996531184958</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-55.782932693702136</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-32.041199826559243</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-40</c:v>
+                  <c:v>-180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,15 +3771,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222745584"/>
-        <c:axId val="222749896"/>
+        <c:axId val="495891888"/>
+        <c:axId val="495891496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222745584"/>
+        <c:axId val="495891888"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3195,61 +3796,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Frekvens i Hz, logaritmisk skala</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3287,16 +3833,14 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222749896"/>
+        <c:crossAx val="495891496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222749896"/>
+        <c:axId val="495891496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="-40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3314,66 +3858,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>Amplitude i</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> dB</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="da-DK"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3411,7 +3895,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222745584"/>
+        <c:crossAx val="495891888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3423,37 +3907,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3531,6 +3984,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3764,11 +4218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222745192"/>
-        <c:axId val="222754600"/>
+        <c:axId val="398881552"/>
+        <c:axId val="398881160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222745192"/>
+        <c:axId val="398881552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3825,12 +4279,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222754600"/>
+        <c:crossAx val="398881160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222754600"/>
+        <c:axId val="398881160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3887,7 +4341,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222745192"/>
+        <c:crossAx val="398881552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3981,6 +4435,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4250,11 +4705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="222749112"/>
-        <c:axId val="222748328"/>
+        <c:axId val="398887432"/>
+        <c:axId val="398890176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="222749112"/>
+        <c:axId val="398887432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4311,12 +4766,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222748328"/>
+        <c:crossAx val="398890176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222748328"/>
+        <c:axId val="398890176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4373,7 +4828,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222749112"/>
+        <c:crossAx val="398887432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8906,20 +9361,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466727</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvPr id="7" name="Diagram 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -8938,23 +9393,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Diagram 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagram 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8981,8 +9434,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1276350</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -9052,36 +9505,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagram 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9089,16 +9512,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666748</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9112,6 +9535,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9843,26 +10296,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -9873,13 +10327,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9890,14 +10347,18 @@
         <v>2.5</v>
       </c>
       <c r="D4">
+        <f>20*LOG(C4)</f>
+        <v>7.9588001734407516</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
-        <f>360*A4*D4</f>
+      <c r="F4">
+        <f>360*A4*E4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -9908,14 +10369,18 @@
         <v>2.5</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D24" si="0">20*LOG(C5)</f>
+        <v>7.9588001734407516</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="E5">
-        <f>-360*A5*D5*10^-3</f>
+      <c r="F5">
+        <f>-360*A5*E5*10^-3</f>
         <v>-5.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10</v>
       </c>
@@ -9926,14 +10391,18 @@
         <v>2.5</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
+        <v>7.9588001734407516</v>
+      </c>
+      <c r="E6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E23" si="0">-360*A6*D6*10^-3</f>
+      <c r="F6">
+        <f>-360*A6*E6*10^-3</f>
         <v>-16.559999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20</v>
       </c>
@@ -9945,14 +10414,18 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
+        <v>7.8539390651933152</v>
+      </c>
+      <c r="E7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
+      <c r="F7">
+        <f>-360*A7*E7*10^-3</f>
         <v>-31.680000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -9964,14 +10437,18 @@
         <v>2.36</v>
       </c>
       <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.4582400594021312</v>
+      </c>
+      <c r="E8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
+      <c r="F8">
+        <f>-360*A8*E8*10^-3</f>
         <v>-47.52000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -9983,14 +10460,18 @@
         <v>2.27</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>7.1205171438624548</v>
+      </c>
+      <c r="E9">
         <v>4.7</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F9">
+        <f>-360*A9*E9*10^-3</f>
         <v>-59.22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -10002,14 +10483,18 @@
         <v>2.14</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>6.6082754669838177</v>
+      </c>
+      <c r="E10">
         <v>4.8</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="F10">
+        <f>-360*A10*E10*10^-3</f>
         <v>-69.12</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>43</v>
       </c>
@@ -10021,14 +10506,18 @@
         <v>2.04</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>6.1926033485179754</v>
+      </c>
+      <c r="E11">
         <v>4.8</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <f>-360*A11*E11*10^-3</f>
         <v>-74.304000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>46</v>
       </c>
@@ -10040,14 +10529,18 @@
         <v>1.97</v>
       </c>
       <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.8893245232318581</v>
+      </c>
+      <c r="E12">
         <v>4.8</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <f>-360*A12*E12*10^-3</f>
         <v>-79.488</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -10059,14 +10552,18 @@
         <v>1.81</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>5.1535714973836901</v>
+      </c>
+      <c r="E13">
         <v>4.8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f>-360*A13*E13*10^-3</f>
         <v>-86.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>53</v>
       </c>
@@ -10078,14 +10575,18 @@
         <v>1.72</v>
       </c>
       <c r="D14">
+        <f t="shared" si="0"/>
+        <v>4.7105689381509777</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
+      <c r="F14">
+        <f>-360*A14*E14*10^-3</f>
         <v>-95.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>56</v>
       </c>
@@ -10097,14 +10598,18 @@
         <v>1.61</v>
       </c>
       <c r="D15">
+        <f t="shared" si="0"/>
+        <v>4.1365175206369944</v>
+      </c>
+      <c r="E15">
         <v>5</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
+      <c r="F15">
+        <f>-360*A15*E15*10^-3</f>
         <v>-100.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>60</v>
       </c>
@@ -10116,14 +10621,18 @@
         <v>1.48</v>
       </c>
       <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.4052343078991476</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
+      <c r="F16">
+        <f>-360*A16*E16*10^-3</f>
         <v>-108</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>70</v>
       </c>
@@ -10135,14 +10644,18 @@
         <v>1.18</v>
       </c>
       <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.4376401461225072</v>
+      </c>
+      <c r="E17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
+      <c r="F17">
+        <f>-360*A17*E17*10^-3</f>
         <v>-110.88000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -10154,14 +10667,18 @@
         <v>0.96</v>
       </c>
       <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-0.35457533920863205</v>
+      </c>
+      <c r="E18">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
+      <c r="F18">
+        <f>-360*A18*E18*10^-3</f>
         <v>-126.72000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>90</v>
       </c>
@@ -10173,14 +10690,18 @@
         <v>0.77</v>
       </c>
       <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-2.2701854965503623</v>
+      </c>
+      <c r="E19">
         <v>4.05</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
+      <c r="F19">
+        <f>-360*A19*E19*10^-3</f>
         <v>-131.22</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>100</v>
       </c>
@@ -10192,14 +10713,18 @@
         <v>0.64</v>
       </c>
       <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-3.8764005203222562</v>
+      </c>
+      <c r="E20">
         <v>3.75</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
+      <c r="F20">
+        <f>-360*A20*E20*10^-3</f>
         <v>-135</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
@@ -10211,14 +10736,18 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-5.1927462101151223</v>
+      </c>
+      <c r="E21">
         <v>3.58</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
+      <c r="F21">
+        <f>-360*A21*E21*10^-3</f>
         <v>-141.768</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>120</v>
       </c>
@@ -10230,14 +10759,18 @@
         <v>0.46</v>
       </c>
       <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-6.7448433663685181</v>
+      </c>
+      <c r="E22">
         <v>3.63</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="F22">
+        <f>-360*A22*E22*10^-3</f>
         <v>-156.816</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>150</v>
       </c>
@@ -10249,14 +10782,18 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-10.752040042020878</v>
+      </c>
+      <c r="E23">
         <v>2.8</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <f>-360*A23*E23*10^-3</f>
         <v>-151.20000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>500</v>
       </c>
@@ -10268,255 +10805,20 @@
         <v>2.75E-2</v>
       </c>
       <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-31.213346123394746</v>
+      </c>
+      <c r="E24">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-180</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>10</v>
-      </c>
-      <c r="B28">
-        <v>2.5</v>
-      </c>
-      <c r="C28">
-        <f>20*LOG10(B28)</f>
-        <v>7.9588001734407516</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>20</v>
-      </c>
-      <c r="B29">
-        <f>4.94/2</f>
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="C29">
-        <f t="shared" ref="C29:C45" si="1">20*LOG10(B29)</f>
-        <v>7.8539390651933152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <f>4.72/2</f>
-        <v>2.36</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>7.4582400594021312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <f>4.54/2</f>
-        <v>2.27</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="1"/>
-        <v>7.1205171438624548</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>40</v>
-      </c>
-      <c r="B32">
-        <f>4.28/2</f>
-        <v>2.14</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="1"/>
-        <v>6.6082754669838177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>43</v>
-      </c>
-      <c r="B33">
-        <f>4.08/2</f>
-        <v>2.04</v>
-      </c>
-      <c r="C33">
-        <f t="shared" si="1"/>
-        <v>6.1926033485179754</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>46</v>
-      </c>
-      <c r="B34">
-        <f>3.94/2</f>
-        <v>1.97</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>5.8893245232318581</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <f>3.62/2</f>
-        <v>1.81</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="1"/>
-        <v>5.1535714973836901</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>53</v>
-      </c>
-      <c r="B36">
-        <f>3.44/2</f>
-        <v>1.72</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="1"/>
-        <v>4.7105689381509777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>56</v>
-      </c>
-      <c r="B37">
-        <f>3.22/2</f>
-        <v>1.61</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="1"/>
-        <v>4.1365175206369944</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>60</v>
-      </c>
-      <c r="B38">
-        <f>2.96/2</f>
-        <v>1.48</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="1"/>
-        <v>3.4052343078991476</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>70</v>
-      </c>
-      <c r="B39">
-        <f>2.36/2</f>
-        <v>1.18</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="1"/>
-        <v>1.4376401461225072</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>80</v>
-      </c>
-      <c r="B40">
-        <f>1.92/2</f>
-        <v>0.96</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="1"/>
-        <v>-0.35457533920863205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>90</v>
-      </c>
-      <c r="B41">
-        <f>1.54/2</f>
-        <v>0.77</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="1"/>
-        <v>-2.2701854965503623</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>100</v>
-      </c>
-      <c r="B42">
-        <f>1.28/2</f>
-        <v>0.64</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="1"/>
-        <v>-3.8764005203222562</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>110</v>
-      </c>
-      <c r="B43">
-        <f>1.1/2</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="1"/>
-        <v>-5.1927462101151223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>120</v>
-      </c>
-      <c r="B44">
-        <f>(920*10^-3)/2</f>
-        <v>0.46</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="1"/>
-        <v>-6.7448433663685181</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>150</v>
-      </c>
-      <c r="B45">
-        <f>(580*10^-3)/2</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="1"/>
-        <v>-10.752040042020878</v>
-      </c>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10529,15 +10831,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -10553,11 +10855,11 @@
   <sheetData>
     <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="12"/>
@@ -10565,10 +10867,10 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8">
@@ -10578,10 +10880,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="9">
@@ -10592,10 +10894,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="8">
@@ -10605,10 +10907,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="8">
@@ -10618,10 +10920,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="8"/>
@@ -10637,15 +10939,13 @@
       <c r="G10" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="26">
         <v>0.155</v>
       </c>
-      <c r="I10" s="16">
-        <v>0.09</v>
-      </c>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -10667,17 +10967,13 @@
         <f>(C8*C7*G10*C9)/C7</f>
         <v>1400.0472199999999</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="20">
         <f>(C8*C7*H10*C9)/C7</f>
         <v>1517.5337</v>
       </c>
-      <c r="I11">
-        <f>(C8*C7*I10*C9)/C7</f>
-        <v>881.14859999999987</v>
-      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="10"/>
@@ -10693,113 +10989,139 @@
       <c r="G12" s="10">
         <v>10.5</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="23">
         <v>11.38</v>
       </c>
-      <c r="I12" s="15">
-        <v>6.61</v>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>4.33</v>
+      </c>
+      <c r="E17" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>8.56</v>
+      </c>
+      <c r="G17" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="H17" s="18">
+        <v>11.38</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="8">
-        <v>4.33</v>
+      <c r="B19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="D19" s="8">
-        <v>5.4</v>
+        <f>5*10^-6*5*D17</f>
+        <v>1.0824999999999999E-4</v>
       </c>
       <c r="E19" s="8">
-        <v>8.56</v>
+        <f>5*10^-6*5*E17</f>
+        <v>1.35E-4</v>
       </c>
       <c r="F19" s="8">
-        <v>10.5</v>
+        <f>5*10^-6*5*F17</f>
+        <v>2.14E-4</v>
       </c>
       <c r="G19" s="8">
-        <v>11.38</v>
-      </c>
-      <c r="H19" s="15">
-        <v>100</v>
+        <f>5*10^-6*5*G17</f>
+        <v>2.6249999999999998E-4</v>
+      </c>
+      <c r="H19" s="20">
+        <f>5*10^-6*5*H17</f>
+        <v>2.8449999999999998E-4</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="10">
+      <c r="B20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8">
+        <f>400*D19</f>
+        <v>4.3299999999999998E-2</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" ref="E20:H20" si="0">400*E19</f>
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5599999999999996E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="0"/>
+        <v>0.105</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.11379999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
         <f>20*10^-3</f>
         <v>0.02</v>
       </c>
-      <c r="D20" s="10">
+      <c r="E22" s="10">
         <f>31*10^-3</f>
         <v>3.1E-2</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F22" s="10">
         <f>64*10^-3</f>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G22" s="10">
         <f>83*10^-3</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H22" s="23">
         <f>92.5*10^-3</f>
         <v>9.2499999999999999E-2</v>
-      </c>
-      <c r="H20" s="10">
-        <f>945*10^-3</f>
-        <v>0.94500000000000006</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23">
-        <v>40</v>
-      </c>
-      <c r="E23">
-        <v>60</v>
-      </c>
-      <c r="F23">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>100</v>
-      </c>
-      <c r="H23">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <f>1/((5*10^-6)*5)</f>
-        <v>40000</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -10810,10 +11132,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H36"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10826,6 +11148,8 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="26.25" x14ac:dyDescent="0.4">
@@ -11627,7 +11951,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>500</v>
       </c>
@@ -11654,7 +11978,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>1000</v>
       </c>
@@ -11681,7 +12005,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1000</v>
       </c>
@@ -11707,12 +12031,31 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
+      <c r="J36" t="s">
+        <v>34</v>
+      </c>
+      <c r="K36">
+        <f>7/SQRT(2)</f>
+        <v>4.9497474683058327</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <f>40-J39</f>
+        <v>3.4353977054607725</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <f>E19-E33</f>
+        <v>36.564602294539228</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11725,7 +12068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -11742,7 +12085,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -11996,7 +12339,7 @@
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Amplitude ud i dB</t>
   </si>
   <si>
-    <t>3dB frekvens ved 7mV amplitude</t>
-  </si>
-  <si>
     <t>Teoretisk spændings output</t>
   </si>
   <si>
@@ -173,7 +170,10 @@
     <t>Gain = 400</t>
   </si>
   <si>
-    <t>Spænding udgang af filter [V]</t>
+    <t>Spænding udgang af filter, teori [V]</t>
+  </si>
+  <si>
+    <t>Spænding udgang af filter, måling [V]</t>
   </si>
 </sst>
 </file>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,14 +357,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -373,6 +371,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,8 +662,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383376824"/>
-        <c:axId val="383371728"/>
+        <c:axId val="387558008"/>
+        <c:axId val="387559968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -836,7 +837,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383376824"/>
+        <c:axId val="387558008"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -894,12 +895,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383371728"/>
+        <c:crossAx val="387559968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383371728"/>
+        <c:axId val="387559968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -956,7 +957,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383376824"/>
+        <c:crossAx val="387558008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1278,11 +1279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383372512"/>
-        <c:axId val="383372904"/>
+        <c:axId val="387556832"/>
+        <c:axId val="387560360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383372512"/>
+        <c:axId val="387556832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1403,12 +1404,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383372904"/>
+        <c:crossAx val="387560360"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383372904"/>
+        <c:axId val="387560360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,7 +1534,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383372512"/>
+        <c:crossAx val="387556832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1815,11 +1816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383376432"/>
-        <c:axId val="383373688"/>
+        <c:axId val="387563104"/>
+        <c:axId val="387561144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383376432"/>
+        <c:axId val="387563104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1877,12 +1878,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383373688"/>
+        <c:crossAx val="387561144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383373688"/>
+        <c:axId val="387561144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1940,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383376432"/>
+        <c:crossAx val="387563104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2104,7 +2105,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11531714590867435"/>
+          <c:y val="0.14920927803873479"/>
+          <c:w val="0.7459214963824079"/>
+          <c:h val="0.663076821408074"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2147,27 +2158,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.40040070842850461"/>
-                  <c:y val="1.1723695420261623E-2"/>
+                  <c:x val="-0.39912754348569646"/>
+                  <c:y val="8.3597211158361523E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2189,29 +2186,29 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
-                      <a:t>y = 1,0261x - 24,331</a:t>
+                      <a:t>y = 0,0103x - 0,0243</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 0,9999</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100">
+                    <a:endParaRPr lang="en-US" sz="1200">
                       <a:solidFill>
                         <a:schemeClr val="accent1"/>
                       </a:solidFill>
@@ -2248,20 +2245,6 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -2352,27 +2335,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.5128490987725447"/>
-                  <c:y val="-2.9312656727476575E-2"/>
+                  <c:x val="-0.52039208137057991"/>
+                  <c:y val="1.2031005793646944E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2394,7 +2363,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
@@ -2402,21 +2371,21 @@
                       <a:t>y = 0,01x</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 1</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100">
+                    <a:endParaRPr lang="en-US" sz="1200">
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
@@ -2512,11 +2481,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383374080"/>
-        <c:axId val="383375256"/>
+        <c:axId val="387556440"/>
+        <c:axId val="387557616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383374080"/>
+        <c:axId val="387556440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,12 +2603,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383375256"/>
+        <c:crossAx val="387557616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383375256"/>
+        <c:axId val="387557616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2757,7 +2726,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383374080"/>
+        <c:crossAx val="387556440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2777,18 +2746,6 @@
       </c:legendEntry>
       <c:legendEntry>
         <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:layout/>
@@ -2893,7 +2850,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="da-DK"/>
-              <a:t>Integrationstest af forstærker og filter sammen </a:t>
+              <a:t>Integrationstest af forstærker og analogt filter </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3230,11 +3187,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="383377608"/>
-        <c:axId val="383378000"/>
+        <c:axId val="387565064"/>
+        <c:axId val="387558792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="383377608"/>
+        <c:axId val="387565064"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3349,12 +3306,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383378000"/>
+        <c:crossAx val="387558792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="383378000"/>
+        <c:axId val="387558792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3474,7 +3431,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383377608"/>
+        <c:crossAx val="387565064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3570,6 +3527,38 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Fasedrej af signal ved integrationstest </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="da-DK" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>af forstærker og analogt filter </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3607,10 +3596,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.8558166610496652E-2"/>
+          <c:x val="8.853819919216685E-2"/>
           <c:y val="0.16391524333469781"/>
-          <c:w val="0.86665584117160455"/>
-          <c:h val="0.81494952298394174"/>
+          <c:w val="0.85667578229368047"/>
+          <c:h val="0.77930746447477628"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3771,11 +3760,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385245504"/>
-        <c:axId val="385241976"/>
+        <c:axId val="387565456"/>
+        <c:axId val="387564280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385245504"/>
+        <c:axId val="387565456"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3796,6 +3785,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Frekvens</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i Hz, logaritmisk skala</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3833,12 +3883,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385241976"/>
+        <c:crossAx val="387564280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385241976"/>
+        <c:axId val="387564280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3858,6 +3908,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Fase</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> i grader</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="da-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3895,7 +4006,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385245504"/>
+        <c:crossAx val="387565456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4218,11 +4329,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385249816"/>
-        <c:axId val="385245896"/>
+        <c:axId val="387566240"/>
+        <c:axId val="387567808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385249816"/>
+        <c:axId val="387566240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,12 +4390,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385245896"/>
+        <c:crossAx val="387567808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385245896"/>
+        <c:axId val="387567808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4341,7 +4452,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385249816"/>
+        <c:crossAx val="387566240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4705,11 +4816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385238840"/>
-        <c:axId val="385243936"/>
+        <c:axId val="387559576"/>
+        <c:axId val="387566632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385238840"/>
+        <c:axId val="387559576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,12 +4877,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385243936"/>
+        <c:crossAx val="387566632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385243936"/>
+        <c:axId val="387566632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4828,7 +4939,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385238840"/>
+        <c:crossAx val="387559576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9428,15 +9539,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1038224</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9543,15 +9654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>100010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10154,7 +10265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -10168,7 +10279,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10687,14 +10798,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -10710,23 +10821,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="24"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8">
@@ -10736,10 +10847,10 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="20"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="9">
@@ -10750,10 +10861,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="20"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="8">
@@ -10763,10 +10874,10 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="20"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="8">
@@ -10776,10 +10887,10 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="20"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="8"/>
@@ -10795,13 +10906,13 @@
       <c r="G10" s="7">
         <v>0.14299999999999999</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="24">
         <v>0.155</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -10823,13 +10934,13 @@
         <f>(C8*C7*G10*C9)/C7</f>
         <v>1400.0472199999999</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <f>(C8*C7*H10*C9)/C7</f>
         <v>1517.5337</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="10"/>
@@ -10845,49 +10956,49 @@
       <c r="G12" s="10">
         <v>10.5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="21">
         <v>11.38</v>
       </c>
-      <c r="I12" s="15"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26">
         <v>4.33</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="26">
         <v>5.4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="26">
         <v>8.56</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="26">
         <v>10.5</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="27">
         <v>11.38</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="21" t="s">
-        <v>35</v>
+      <c r="B18" s="19" t="s">
+        <v>34</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="20"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="D19" s="8">
         <f>5*10^-6*5*D17</f>
@@ -10905,17 +11016,17 @@
         <f>5*10^-6*5*G17</f>
         <v>2.6249999999999998E-4</v>
       </c>
-      <c r="H19" s="20">
+      <c r="H19" s="18">
         <f>5*10^-6*5*H17</f>
         <v>2.8449999999999998E-4</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>40</v>
+      <c r="B20" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="8">
         <f>400*D19</f>
@@ -10933,24 +11044,24 @@
         <f t="shared" si="0"/>
         <v>0.105</v>
       </c>
-      <c r="H20" s="20">
+      <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>0.11379999999999998</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="22"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="10"/>
@@ -10970,7 +11081,7 @@
         <f>83*10^-3</f>
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="21">
         <f>92.5*10^-3</f>
         <v>9.2499999999999999E-2</v>
       </c>
@@ -10982,16 +11093,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11807,7 +11919,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>500</v>
       </c>
@@ -11834,7 +11946,7 @@
         <v>-181.8</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>1000</v>
       </c>
@@ -11861,7 +11973,7 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>1000</v>
       </c>
@@ -11887,27 +11999,20 @@
         <v>-180</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="J36" t="s">
-        <v>34</v>
-      </c>
-      <c r="K36">
-        <f>7/SQRT(2)</f>
-        <v>4.9497474683058327</v>
-      </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J38">
         <f>40-J39</f>
         <v>3.4353977054607725</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J39">
         <f>E19-E33</f>
         <v>36.564602294539228</v>
@@ -11924,7 +12029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -11940,7 +12045,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
@@ -11950,25 +12055,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12199,25 +12304,25 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Filter" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>Spænding udgang af filter, måling [V]</t>
+  </si>
+  <si>
+    <t>Input med offset korrigering</t>
+  </si>
+  <si>
+    <t>Forstærkning med offset korrigering</t>
   </si>
 </sst>
 </file>
@@ -436,7 +442,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -662,8 +667,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387558008"/>
-        <c:axId val="387559968"/>
+        <c:axId val="405627976"/>
+        <c:axId val="405626800"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -837,7 +842,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387558008"/>
+        <c:axId val="405627976"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -895,12 +900,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387559968"/>
+        <c:crossAx val="405626800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387559968"/>
+        <c:axId val="405626800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +962,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387558008"/>
+        <c:crossAx val="405627976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1051,7 +1056,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1279,11 +1283,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387556832"/>
-        <c:axId val="387560360"/>
+        <c:axId val="405625232"/>
+        <c:axId val="405626016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387556832"/>
+        <c:axId val="405625232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1337,7 +1341,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1404,12 +1407,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387560360"/>
+        <c:crossAx val="405626016"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387560360"/>
+        <c:axId val="405626016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1534,7 +1537,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387556832"/>
+        <c:crossAx val="405625232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1598,7 +1601,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1816,11 +1818,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387563104"/>
-        <c:axId val="387561144"/>
+        <c:axId val="408380360"/>
+        <c:axId val="408382712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387563104"/>
+        <c:axId val="408380360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1878,12 +1880,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387561144"/>
+        <c:crossAx val="408382712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387561144"/>
+        <c:axId val="408382712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1942,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387563104"/>
+        <c:crossAx val="408380360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1954,7 +1956,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2481,11 +2482,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387556440"/>
-        <c:axId val="387557616"/>
+        <c:axId val="408385848"/>
+        <c:axId val="408376048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387556440"/>
+        <c:axId val="408385848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,12 +2604,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387557616"/>
+        <c:crossAx val="408376048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387557616"/>
+        <c:axId val="408376048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,7 +2727,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387556440"/>
+        <c:crossAx val="408385848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2855,7 +2856,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,11 +3187,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387565064"/>
-        <c:axId val="387558792"/>
+        <c:axId val="408378792"/>
+        <c:axId val="408384280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387565064"/>
+        <c:axId val="408378792"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3239,7 +3239,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3306,12 +3305,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387558792"/>
+        <c:crossAx val="408384280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387558792"/>
+        <c:axId val="408384280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3364,7 +3363,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3431,7 +3429,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387565064"/>
+        <c:crossAx val="408378792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3445,7 +3443,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3559,7 +3556,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3760,11 +3756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387565456"/>
-        <c:axId val="387564280"/>
+        <c:axId val="408381144"/>
+        <c:axId val="408376440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387565456"/>
+        <c:axId val="408381144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3816,7 +3812,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3883,12 +3878,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387564280"/>
+        <c:crossAx val="408376440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387564280"/>
+        <c:axId val="408376440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3939,7 +3934,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4006,7 +4000,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387565456"/>
+        <c:crossAx val="408381144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4329,11 +4323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387566240"/>
-        <c:axId val="387567808"/>
+        <c:axId val="408374872"/>
+        <c:axId val="408379576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387566240"/>
+        <c:axId val="408374872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4390,12 +4384,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387567808"/>
+        <c:crossAx val="408379576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387567808"/>
+        <c:axId val="408379576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4452,7 +4446,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387566240"/>
+        <c:crossAx val="408374872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4816,11 +4810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387559576"/>
-        <c:axId val="387566632"/>
+        <c:axId val="408377224"/>
+        <c:axId val="408379968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387559576"/>
+        <c:axId val="408377224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4877,12 +4871,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387566632"/>
+        <c:crossAx val="408379968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387566632"/>
+        <c:axId val="408379968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4939,7 +4933,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387559576"/>
+        <c:crossAx val="408377224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10798,7 +10792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -12029,8 +12023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12039,9 +12033,9 @@
     <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
@@ -12071,10 +12065,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
+++ b/Hardware/TheGoldenDoc (reg af forstærker) & filter.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Forstærkning</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>Forstærkning med offset korrigering</t>
+  </si>
+  <si>
+    <t>Output korrigeret</t>
   </si>
 </sst>
 </file>
@@ -667,8 +670,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405627976"/>
-        <c:axId val="405626800"/>
+        <c:axId val="385547936"/>
+        <c:axId val="385548328"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -842,7 +845,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405627976"/>
+        <c:axId val="385547936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -900,12 +903,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405626800"/>
+        <c:crossAx val="385548328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405626800"/>
+        <c:axId val="385548328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,7 +965,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405627976"/>
+        <c:crossAx val="385547936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1283,11 +1286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405625232"/>
-        <c:axId val="405626016"/>
+        <c:axId val="385549112"/>
+        <c:axId val="388756336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405625232"/>
+        <c:axId val="385549112"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1407,12 +1410,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405626016"/>
+        <c:crossAx val="388756336"/>
         <c:crossesAt val="-200"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405626016"/>
+        <c:axId val="388756336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1537,7 +1540,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405625232"/>
+        <c:crossAx val="385549112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1818,11 +1821,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408380360"/>
-        <c:axId val="408382712"/>
+        <c:axId val="388763000"/>
+        <c:axId val="388752024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408380360"/>
+        <c:axId val="388763000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1880,12 +1883,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408382712"/>
+        <c:crossAx val="388752024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408382712"/>
+        <c:axId val="388752024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +1945,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408380360"/>
+        <c:crossAx val="388763000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2482,11 +2485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408385848"/>
-        <c:axId val="408376048"/>
+        <c:axId val="388751632"/>
+        <c:axId val="388763392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408385848"/>
+        <c:axId val="388751632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2540,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2604,12 +2606,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408376048"/>
+        <c:crossAx val="388763392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408376048"/>
+        <c:axId val="388763392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2662,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2727,7 +2728,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408385848"/>
+        <c:crossAx val="388751632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2749,7 +2750,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3187,11 +3187,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408378792"/>
-        <c:axId val="408384280"/>
+        <c:axId val="388754768"/>
+        <c:axId val="388762608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408378792"/>
+        <c:axId val="388754768"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3305,12 +3305,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408384280"/>
+        <c:crossAx val="388762608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408384280"/>
+        <c:axId val="388762608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10"/>
@@ -3429,7 +3429,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408378792"/>
+        <c:crossAx val="388754768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3756,11 +3756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408381144"/>
-        <c:axId val="408376440"/>
+        <c:axId val="388752416"/>
+        <c:axId val="388756728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408381144"/>
+        <c:axId val="388752416"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3878,12 +3878,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408376440"/>
+        <c:crossAx val="388756728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408376440"/>
+        <c:axId val="388756728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4000,7 +4000,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408381144"/>
+        <c:crossAx val="388752416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4323,11 +4323,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408374872"/>
-        <c:axId val="408379576"/>
+        <c:axId val="388757120"/>
+        <c:axId val="388758688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408374872"/>
+        <c:axId val="388757120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4384,12 +4384,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408379576"/>
+        <c:crossAx val="388758688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408379576"/>
+        <c:axId val="388758688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4446,7 +4446,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408374872"/>
+        <c:crossAx val="388757120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4540,7 +4540,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4810,11 +4809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="408377224"/>
-        <c:axId val="408379968"/>
+        <c:axId val="388755552"/>
+        <c:axId val="388755944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="408377224"/>
+        <c:axId val="388755552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4871,12 +4870,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408379968"/>
+        <c:crossAx val="388755944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="408379968"/>
+        <c:axId val="388755944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4932,398 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408377224"/>
+        <c:crossAx val="388755552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Korrigeret</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21821434820647415"/>
+                  <c:y val="1.8101851851851852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="da-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Forstærker!$F$6:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.45E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.7499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8000000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4500000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Forstærker!$H$6:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.98119999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3012000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8812</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9411999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4611999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7611999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="494951752"/>
+        <c:axId val="494951360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="494951752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494951360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="494951360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="494951752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5302,6 +5692,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8915,6 +9345,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9735,6 +10681,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12021,10 +12997,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12036,19 +13012,20 @@
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -12070,8 +13047,11 @@
       <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="H5" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -12092,15 +13072,19 @@
         <v>784</v>
       </c>
       <c r="F6" s="8">
-        <f t="shared" ref="F6:F13" si="0">C6+0.0012</f>
+        <f>C6+0.0012</f>
         <v>2.4499999999999999E-3</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" ref="G6:G13" si="1">D6/F6</f>
+        <f t="shared" ref="G6:G13" si="0">D6/F6</f>
         <v>400</v>
       </c>
+      <c r="H6">
+        <f>D6+0.0012</f>
+        <v>0.98119999999999996</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -12116,19 +13100,23 @@
         <v>1.3</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" ref="E7:E13" si="2">D7/C7</f>
+        <f t="shared" ref="E7:E13" si="1">D7/C7</f>
         <v>666.66666666666674</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" ref="F6:F13" si="2">C7+0.0012</f>
+        <v>3.15E-3</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
-        <v>3.15E-3</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="1"/>
         <v>412.69841269841271</v>
       </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H13" si="3">D7+0.0012</f>
+        <v>1.3012000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -12144,19 +13132,23 @@
         <v>1.88</v>
       </c>
       <c r="E8" s="8">
+        <f t="shared" si="1"/>
+        <v>578.46153846153834</v>
+      </c>
+      <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>578.46153846153834</v>
-      </c>
-      <c r="F8" s="8">
+        <v>4.45E-3</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>4.45E-3</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="1"/>
         <v>422.47191011235952</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>1.8812</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -12172,19 +13164,23 @@
         <v>2.14</v>
       </c>
       <c r="E9" s="8">
+        <f t="shared" si="1"/>
+        <v>541.77215189873414</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="2"/>
-        <v>541.77215189873414</v>
-      </c>
-      <c r="F9" s="8">
+        <v>5.1500000000000001E-3</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>5.1500000000000001E-3</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="1"/>
         <v>415.53398058252429</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2.1412</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -12199,19 +13195,23 @@
         <v>2.66</v>
       </c>
       <c r="E10" s="8">
+        <f t="shared" si="1"/>
+        <v>479.27927927927931</v>
+      </c>
+      <c r="F10" s="8">
         <f t="shared" si="2"/>
-        <v>479.27927927927931</v>
-      </c>
-      <c r="F10" s="8">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="0"/>
-        <v>6.7499999999999999E-3</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
         <v>394.07407407407408</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.6612</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -12226,19 +13226,23 @@
         <v>2.94</v>
       </c>
       <c r="E11" s="8">
+        <f t="shared" si="1"/>
+        <v>474.19354838709671</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="2"/>
-        <v>474.19354838709671</v>
-      </c>
-      <c r="F11" s="8">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="0"/>
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="1"/>
         <v>397.29729729729729</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>2.9411999999999998</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -12253,19 +13257,23 @@
         <v>3.46</v>
       </c>
       <c r="E12" s="8">
+        <f t="shared" si="1"/>
+        <v>455.26315789473682</v>
+      </c>
+      <c r="F12" s="8">
         <f t="shared" si="2"/>
-        <v>455.26315789473682</v>
-      </c>
-      <c r="F12" s="8">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="0"/>
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="1"/>
         <v>393.18181818181813</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>3.4611999999999998</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>10</v>
       </c>
@@ -12280,16 +13288,20 @@
         <v>3.76</v>
       </c>
       <c r="E13" s="10">
+        <f t="shared" si="1"/>
+        <v>455.75757575757569</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="2"/>
-        <v>455.75757575757569</v>
-      </c>
-      <c r="F13" s="10">
+        <v>9.4500000000000001E-3</v>
+      </c>
+      <c r="G13" s="10">
         <f t="shared" si="0"/>
-        <v>9.4500000000000001E-3</v>
-      </c>
-      <c r="G13" s="10">
-        <f t="shared" si="1"/>
         <v>397.88359788359787</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>3.7611999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -12366,15 +13378,15 @@
         <v>0.77</v>
       </c>
       <c r="E37" s="8">
-        <f t="shared" ref="E37:E42" si="3">D37/C37</f>
+        <f t="shared" ref="E37:E42" si="4">D37/C37</f>
         <v>385</v>
       </c>
       <c r="F37" s="8">
-        <f t="shared" ref="F37:F45" si="4">C37-0.1375*10^-3</f>
+        <f t="shared" ref="F37:F45" si="5">C37-0.1375*10^-3</f>
         <v>1.8625E-3</v>
       </c>
       <c r="G37" s="8">
-        <f t="shared" ref="G37:G45" si="5">D37/F37</f>
+        <f t="shared" ref="G37:G45" si="6">D37/F37</f>
         <v>413.42281879194633</v>
       </c>
     </row>
@@ -12395,15 +13407,15 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>380.32786885245901</v>
       </c>
       <c r="F38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.9124999999999997E-3</v>
       </c>
       <c r="G38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>398.28326180257511</v>
       </c>
     </row>
@@ -12424,15 +13436,15 @@
         <v>1.5449999999999999</v>
       </c>
       <c r="E39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>393.63057324840764</v>
       </c>
       <c r="F39" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.7874999999999996E-3</v>
       </c>
       <c r="G39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>407.92079207920796</v>
       </c>
     </row>
@@ -12453,15 +13465,15 @@
         <v>1.9850000000000001</v>
       </c>
       <c r="E40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.21568627450984</v>
       </c>
       <c r="F40" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9624999999999999E-3</v>
       </c>
       <c r="G40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
     </row>
@@ -12482,15 +13494,15 @@
         <v>2.37</v>
       </c>
       <c r="E41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>388.52459016393448</v>
       </c>
       <c r="F41" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.9624999999999999E-3</v>
       </c>
       <c r="G41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>397.48427672955978</v>
       </c>
     </row>
@@ -12510,15 +13522,15 @@
         <v>2.79</v>
       </c>
       <c r="E42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>404.3478260869565</v>
       </c>
       <c r="F42" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7625000000000011E-3</v>
       </c>
       <c r="G42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>412.56931608133078</v>
       </c>
     </row>
@@ -12542,11 +13554,11 @@
         <v>405.03144654088049</v>
       </c>
       <c r="F43" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.8125E-3</v>
       </c>
       <c r="G43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>412.16</v>
       </c>
     </row>
@@ -12566,15 +13578,15 @@
         <v>3.59</v>
       </c>
       <c r="E44" s="8">
-        <f t="shared" ref="E44:E45" si="6">D44/C44</f>
+        <f t="shared" ref="E44:E45" si="7">D44/C44</f>
         <v>407.95454545454544</v>
       </c>
       <c r="F44" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.6625000000000001E-3</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>414.43001443001441</v>
       </c>
     </row>
@@ -12594,15 +13606,15 @@
         <v>3.98</v>
       </c>
       <c r="E45" s="10">
+        <f t="shared" si="7"/>
+        <v>408.20512820512818</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="5"/>
+        <v>9.6124999999999995E-3</v>
+      </c>
+      <c r="G45" s="10">
         <f t="shared" si="6"/>
-        <v>408.20512820512818</v>
-      </c>
-      <c r="F45" s="10">
-        <f t="shared" si="4"/>
-        <v>9.6124999999999995E-3</v>
-      </c>
-      <c r="G45" s="10">
-        <f t="shared" si="5"/>
         <v>414.0442132639792</v>
       </c>
     </row>
